--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_10_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2988787.397239798</v>
+        <v>2987207.753703511</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2711866.869280503</v>
+        <v>2711866.869280501</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673446</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>27.59002526031614</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="W2" t="n">
-        <v>7.772547683598761</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,61 +735,61 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -814,58 +814,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>19.72731862540288</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>19.72183703821129</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="D6" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="W6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,67 +1054,67 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="F7" t="n">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U7" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>27.59002526031614</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.122510992439955</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="H9" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.72731862540289</v>
+      </c>
+      <c r="E10" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>228.9898208565925</v>
       </c>
       <c r="I11" t="n">
-        <v>28.49046081153179</v>
+        <v>28.49046081153178</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.84936306085658</v>
+        <v>66.84936306085656</v>
       </c>
       <c r="T11" t="n">
         <v>127.4198487995079</v>
       </c>
       <c r="U11" t="n">
-        <v>166.52304692903</v>
+        <v>166.5230469290299</v>
       </c>
       <c r="V11" t="n">
         <v>243.1316935810003</v>
@@ -1436,7 +1436,7 @@
         <v>285.1105357893344</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.6173737669191</v>
+        <v>301.617373766919</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.21141529280274</v>
+        <v>95.21141529280273</v>
       </c>
       <c r="C13" t="n">
-        <v>82.62625620949328</v>
+        <v>82.62625620949326</v>
       </c>
       <c r="D13" t="n">
-        <v>63.9949081290778</v>
+        <v>63.99490812907779</v>
       </c>
       <c r="E13" t="n">
-        <v>61.81339775743461</v>
+        <v>61.8133977574346</v>
       </c>
       <c r="F13" t="n">
-        <v>60.80048313379669</v>
+        <v>60.80048313379667</v>
       </c>
       <c r="G13" t="n">
-        <v>82.23755600290008</v>
+        <v>82.23755600290006</v>
       </c>
       <c r="H13" t="n">
-        <v>67.53446598046149</v>
+        <v>67.53446598046153</v>
       </c>
       <c r="I13" t="n">
-        <v>36.76176633875136</v>
+        <v>36.76176633875134</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.73539035227446</v>
+        <v>41.73539035227444</v>
       </c>
       <c r="S13" t="n">
         <v>119.6533996920648</v>
@@ -1613,7 +1613,7 @@
         <v>270.0624767315484</v>
       </c>
       <c r="E14" t="n">
-        <v>297.3098051831273</v>
+        <v>297.3098051831272</v>
       </c>
       <c r="F14" t="n">
         <v>322.2554808525769</v>
@@ -1622,10 +1622,10 @@
         <v>328.1566590051007</v>
       </c>
       <c r="H14" t="n">
-        <v>228.9898208565926</v>
+        <v>228.9898208565925</v>
       </c>
       <c r="I14" t="n">
-        <v>28.4904608115318</v>
+        <v>28.49046081153179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.84936306085659</v>
+        <v>66.84936306085658</v>
       </c>
       <c r="T14" t="n">
-        <v>127.419848799508</v>
+        <v>127.4198487995079</v>
       </c>
       <c r="U14" t="n">
         <v>166.52304692903</v>
       </c>
       <c r="V14" t="n">
-        <v>243.1316935810004</v>
+        <v>243.1316935810003</v>
       </c>
       <c r="W14" t="n">
-        <v>264.6204038282785</v>
+        <v>264.6204038282784</v>
       </c>
       <c r="X14" t="n">
-        <v>285.1105357893345</v>
+        <v>285.1105357893344</v>
       </c>
       <c r="Y14" t="n">
         <v>301.6173737669191</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.21141529280276</v>
+        <v>95.21141529280274</v>
       </c>
       <c r="C16" t="n">
-        <v>82.62625620949329</v>
+        <v>82.62625620949328</v>
       </c>
       <c r="D16" t="n">
-        <v>63.99490812907781</v>
+        <v>63.9949081290778</v>
       </c>
       <c r="E16" t="n">
-        <v>61.81339775743463</v>
+        <v>61.81339775743461</v>
       </c>
       <c r="F16" t="n">
-        <v>60.8004831337967</v>
+        <v>60.80048313379669</v>
       </c>
       <c r="G16" t="n">
-        <v>82.23755600290011</v>
+        <v>82.23755600290008</v>
       </c>
       <c r="H16" t="n">
-        <v>67.53446598046156</v>
+        <v>67.53446598046155</v>
       </c>
       <c r="I16" t="n">
-        <v>36.76176633875137</v>
+        <v>36.76176633875136</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.73539035227447</v>
+        <v>41.73539035227446</v>
       </c>
       <c r="S16" t="n">
         <v>119.6533996920648</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4846292735167</v>
+        <v>138.4846292735166</v>
       </c>
       <c r="U16" t="n">
         <v>201.6366721873696</v>
       </c>
       <c r="V16" t="n">
-        <v>167.5170784346935</v>
+        <v>167.5170784346934</v>
       </c>
       <c r="W16" t="n">
-        <v>201.9024334474565</v>
+        <v>201.9024334474564</v>
       </c>
       <c r="X16" t="n">
         <v>141.0890904999026</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.9640884629603</v>
+        <v>133.9640884629602</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>270.0624767315484</v>
       </c>
       <c r="E17" t="n">
-        <v>297.3098051831273</v>
+        <v>297.3098051831272</v>
       </c>
       <c r="F17" t="n">
         <v>322.2554808525769</v>
@@ -1859,10 +1859,10 @@
         <v>328.1566590051007</v>
       </c>
       <c r="H17" t="n">
-        <v>228.9898208565926</v>
+        <v>228.9898208565925</v>
       </c>
       <c r="I17" t="n">
-        <v>28.4904608115318</v>
+        <v>28.49046081153179</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.84936306085659</v>
+        <v>66.84936306085658</v>
       </c>
       <c r="T17" t="n">
-        <v>127.419848799508</v>
+        <v>127.4198487995079</v>
       </c>
       <c r="U17" t="n">
         <v>166.52304692903</v>
       </c>
       <c r="V17" t="n">
-        <v>243.1316935810004</v>
+        <v>243.1316935810003</v>
       </c>
       <c r="W17" t="n">
-        <v>264.6204038282785</v>
+        <v>264.6204038282784</v>
       </c>
       <c r="X17" t="n">
-        <v>285.1105357893345</v>
+        <v>285.1105357893344</v>
       </c>
       <c r="Y17" t="n">
         <v>301.6173737669191</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.21141529280276</v>
+        <v>95.21141529280274</v>
       </c>
       <c r="C19" t="n">
-        <v>82.62625620949329</v>
+        <v>82.62625620949328</v>
       </c>
       <c r="D19" t="n">
-        <v>63.99490812907781</v>
+        <v>63.9949081290778</v>
       </c>
       <c r="E19" t="n">
-        <v>61.81339775743463</v>
+        <v>61.81339775743461</v>
       </c>
       <c r="F19" t="n">
-        <v>60.80048313379579</v>
+        <v>60.80048313379669</v>
       </c>
       <c r="G19" t="n">
-        <v>82.23755600290011</v>
+        <v>82.23755600290009</v>
       </c>
       <c r="H19" t="n">
-        <v>67.53446598046156</v>
+        <v>67.53446598046155</v>
       </c>
       <c r="I19" t="n">
-        <v>36.76176633875137</v>
+        <v>36.76176633875136</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.73539035227447</v>
+        <v>41.73539035227446</v>
       </c>
       <c r="S19" t="n">
         <v>119.6533996920648</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4846292735167</v>
+        <v>138.4846292735166</v>
       </c>
       <c r="U19" t="n">
         <v>201.6366721873696</v>
       </c>
       <c r="V19" t="n">
-        <v>167.5170784346935</v>
+        <v>167.5170784346934</v>
       </c>
       <c r="W19" t="n">
-        <v>201.9024334474565</v>
+        <v>201.9024334474564</v>
       </c>
       <c r="X19" t="n">
         <v>141.0890904999026</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.9640884629603</v>
+        <v>133.9640884629602</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>328.1566590051007</v>
       </c>
       <c r="H20" t="n">
-        <v>228.9898208565926</v>
+        <v>228.9898208565925</v>
       </c>
       <c r="I20" t="n">
-        <v>28.49046081153179</v>
+        <v>28.49046081153131</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.84936306085658</v>
+        <v>66.84936306085659</v>
       </c>
       <c r="T20" t="n">
-        <v>127.419848799508</v>
+        <v>127.4198487995079</v>
       </c>
       <c r="U20" t="n">
         <v>166.52304692903</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>16.26062905035468</v>
+        <v>16.26062905035469</v>
       </c>
       <c r="S21" t="n">
         <v>146.58394366613</v>
@@ -2251,10 +2251,10 @@
         <v>60.8004831337967</v>
       </c>
       <c r="G22" t="n">
-        <v>82.23755600290011</v>
+        <v>82.23755600290009</v>
       </c>
       <c r="H22" t="n">
-        <v>67.53446598046156</v>
+        <v>67.53446598046158</v>
       </c>
       <c r="I22" t="n">
         <v>36.76176633875137</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.73539035227446</v>
+        <v>41.73539035227448</v>
       </c>
       <c r="S22" t="n">
         <v>119.6533996920648</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4846292735167</v>
+        <v>138.4846292735166</v>
       </c>
       <c r="U22" t="n">
         <v>201.6366721873696</v>
@@ -2324,7 +2324,7 @@
         <v>270.0624767315484</v>
       </c>
       <c r="E23" t="n">
-        <v>297.3098051831272</v>
+        <v>297.3098051831273</v>
       </c>
       <c r="F23" t="n">
         <v>322.2554808525769</v>
@@ -2333,10 +2333,10 @@
         <v>328.1566590051007</v>
       </c>
       <c r="H23" t="n">
-        <v>228.9898208565925</v>
+        <v>228.9898208565926</v>
       </c>
       <c r="I23" t="n">
-        <v>28.49046081153179</v>
+        <v>28.4904608115318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.84936306085658</v>
+        <v>66.84936306085659</v>
       </c>
       <c r="T23" t="n">
-        <v>127.4198487995079</v>
+        <v>127.419848799508</v>
       </c>
       <c r="U23" t="n">
         <v>166.52304692903</v>
       </c>
       <c r="V23" t="n">
-        <v>243.1316935810003</v>
+        <v>243.1316935810004</v>
       </c>
       <c r="W23" t="n">
-        <v>264.6204038282784</v>
+        <v>264.6204038282785</v>
       </c>
       <c r="X23" t="n">
-        <v>285.1105357893344</v>
+        <v>285.1105357893345</v>
       </c>
       <c r="Y23" t="n">
         <v>301.6173737669191</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.21141529280274</v>
+        <v>95.21141529280276</v>
       </c>
       <c r="C25" t="n">
-        <v>82.62625620949328</v>
+        <v>82.62625620949329</v>
       </c>
       <c r="D25" t="n">
-        <v>63.9949081290778</v>
+        <v>63.99490812907781</v>
       </c>
       <c r="E25" t="n">
-        <v>61.81339775743461</v>
+        <v>61.81339775743463</v>
       </c>
       <c r="F25" t="n">
-        <v>60.80048313379669</v>
+        <v>60.8004831337967</v>
       </c>
       <c r="G25" t="n">
-        <v>82.23755600290009</v>
+        <v>82.23755600290011</v>
       </c>
       <c r="H25" t="n">
         <v>67.53446598046156</v>
       </c>
       <c r="I25" t="n">
-        <v>36.76176633875136</v>
+        <v>36.76176633875137</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.73539035227446</v>
+        <v>41.73539035227447</v>
       </c>
       <c r="S25" t="n">
         <v>119.6533996920648</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4846292735166</v>
+        <v>138.4846292735167</v>
       </c>
       <c r="U25" t="n">
         <v>201.6366721873696</v>
       </c>
       <c r="V25" t="n">
-        <v>167.5170784346934</v>
+        <v>167.5170784346935</v>
       </c>
       <c r="W25" t="n">
-        <v>201.9024334474564</v>
+        <v>201.9024334474565</v>
       </c>
       <c r="X25" t="n">
         <v>141.0890904999026</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.9640884629602</v>
+        <v>133.9640884629603</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.563330456486</v>
+        <v>33.71507932328556</v>
       </c>
       <c r="C28" t="n">
-        <v>73.60389690953947</v>
+        <v>98.97817137317652</v>
       </c>
       <c r="D28" t="n">
         <v>80.34682329276104</v>
       </c>
       <c r="E28" t="n">
-        <v>78.16531292111786</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>98.58947116658332</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.88638114414481</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>53.1136815024346</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>58.08730551595771</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>136.0053148557481</v>
@@ -2779,7 +2779,7 @@
         <v>157.4410056635858</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>150.3160036266435</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>286.4143918952316</v>
       </c>
       <c r="E29" t="n">
-        <v>313.6617203468104</v>
+        <v>313.6617203468105</v>
       </c>
       <c r="F29" t="n">
         <v>338.6073960162601</v>
@@ -2810,7 +2810,7 @@
         <v>245.3417360202757</v>
       </c>
       <c r="I29" t="n">
-        <v>44.84237597521498</v>
+        <v>44.84237597521503</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.20127822453976</v>
+        <v>83.20127822453982</v>
       </c>
       <c r="T29" t="n">
-        <v>143.7717639631911</v>
+        <v>143.7717639631912</v>
       </c>
       <c r="U29" t="n">
-        <v>182.8749620927131</v>
+        <v>182.8749620927132</v>
       </c>
       <c r="V29" t="n">
-        <v>259.4836087446835</v>
+        <v>259.4836087446836</v>
       </c>
       <c r="W29" t="n">
-        <v>280.9723189919616</v>
+        <v>280.9723189919617</v>
       </c>
       <c r="X29" t="n">
         <v>301.4624509530177</v>
       </c>
       <c r="Y29" t="n">
-        <v>317.9692889306022</v>
+        <v>317.9692889306023</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.5633304564859</v>
+        <v>111.563330456486</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.34682329276099</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.1653129211178</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.15239829747988</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>98.58947116658332</v>
       </c>
       <c r="H31" t="n">
-        <v>83.88638114414475</v>
+        <v>83.88638114414481</v>
       </c>
       <c r="I31" t="n">
-        <v>53.11368150243455</v>
+        <v>53.1136815024346</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>58.08730551595765</v>
+        <v>2.88727236615302</v>
       </c>
       <c r="S31" t="n">
-        <v>136.005314855748</v>
+        <v>136.0053148557481</v>
       </c>
       <c r="T31" t="n">
-        <v>154.8365444371998</v>
+        <v>154.8365444371999</v>
       </c>
       <c r="U31" t="n">
-        <v>217.9885873510527</v>
+        <v>217.9885873510528</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>183.8689935983767</v>
       </c>
       <c r="W31" t="n">
-        <v>218.2543486111396</v>
+        <v>218.2543486111397</v>
       </c>
       <c r="X31" t="n">
-        <v>149.0349027673839</v>
+        <v>157.4410056635858</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.3160036266434</v>
+        <v>150.3160036266435</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.563330456486</v>
+        <v>109.4769788091166</v>
       </c>
       <c r="C34" t="n">
-        <v>98.97817137317652</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.34682329276104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.16531292111786</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.15239829747993</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>98.58947116658332</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.88638114414479</v>
       </c>
       <c r="I34" t="n">
-        <v>53.1136815024346</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>218.2543486111397</v>
       </c>
       <c r="X34" t="n">
-        <v>100.3901225666179</v>
+        <v>157.4410056635858</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>150.3160036266435</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3424,7 @@
         <v>95.21141529280274</v>
       </c>
       <c r="C37" t="n">
-        <v>82.62625620949214</v>
+        <v>82.62625620949328</v>
       </c>
       <c r="D37" t="n">
         <v>63.9949081290778</v>
@@ -3439,7 +3439,7 @@
         <v>82.23755600290009</v>
       </c>
       <c r="H37" t="n">
-        <v>67.53446598046155</v>
+        <v>67.53446598046156</v>
       </c>
       <c r="I37" t="n">
         <v>36.76176633875136</v>
@@ -3521,7 +3521,7 @@
         <v>228.9898208565925</v>
       </c>
       <c r="I38" t="n">
-        <v>28.49046081153179</v>
+        <v>28.4904608115318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.84936306085658</v>
+        <v>66.84936306085659</v>
       </c>
       <c r="T38" t="n">
         <v>127.4198487995079</v>
@@ -3600,7 +3600,7 @@
         <v>99.18503129249822</v>
       </c>
       <c r="I39" t="n">
-        <v>42.87268116640772</v>
+        <v>42.87268116640774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>16.26062905035469</v>
+        <v>16.26062905035471</v>
       </c>
       <c r="S39" t="n">
-        <v>146.58394366613</v>
+        <v>146.5839436661301</v>
       </c>
       <c r="T39" t="n">
         <v>194.7181667077488</v>
@@ -3676,7 +3676,7 @@
         <v>82.23755600290008</v>
       </c>
       <c r="H40" t="n">
-        <v>67.53446598046155</v>
+        <v>67.53446598046156</v>
       </c>
       <c r="I40" t="n">
         <v>36.76176633875136</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.4782500161509</v>
+        <v>358.4782500161511</v>
       </c>
       <c r="C41" t="n">
-        <v>341.0173001236779</v>
+        <v>341.0173001236781</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>330.4274499733535</v>
       </c>
       <c r="E41" t="n">
-        <v>357.6747784249321</v>
+        <v>357.6747784249323</v>
       </c>
       <c r="F41" t="n">
-        <v>382.6204540943818</v>
+        <v>382.620454094382</v>
       </c>
       <c r="G41" t="n">
-        <v>304.755972457303</v>
+        <v>388.5216322469058</v>
       </c>
       <c r="H41" t="n">
-        <v>289.3547940983974</v>
+        <v>289.3547940983976</v>
       </c>
       <c r="I41" t="n">
-        <v>88.85543405333669</v>
+        <v>88.85543405333685</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>127.2143363026615</v>
+        <v>127.2143363026616</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>187.784822041313</v>
       </c>
       <c r="U41" t="n">
-        <v>226.8880201708349</v>
+        <v>8.381145622566601</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>303.4966668228054</v>
       </c>
       <c r="W41" t="n">
-        <v>324.9853770700834</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>345.4755090311394</v>
+        <v>345.4755090311396</v>
       </c>
       <c r="Y41" t="n">
-        <v>361.9823470087239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5763885346076</v>
+        <v>155.5763885346078</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3598813708827</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1783709992395</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1654563756016</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>142.6025292447052</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>68.57429657024178</v>
       </c>
       <c r="I43" t="n">
-        <v>97.12673958055626</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>198.8496025153217</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8820516764983</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2674066892613</v>
+        <v>262.2674066892615</v>
       </c>
       <c r="X43" t="n">
-        <v>113.097053773965</v>
+        <v>201.4540637417077</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>194.3290617047653</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.4782500161509</v>
+        <v>358.4782500161511</v>
       </c>
       <c r="C44" t="n">
-        <v>341.0173001236779</v>
+        <v>341.0173001236781</v>
       </c>
       <c r="D44" t="n">
-        <v>330.4274499733533</v>
+        <v>330.4274499733535</v>
       </c>
       <c r="E44" t="n">
-        <v>357.6747784249321</v>
+        <v>357.6747784249323</v>
       </c>
       <c r="F44" t="n">
-        <v>382.6204540943818</v>
+        <v>382.620454094382</v>
       </c>
       <c r="G44" t="n">
-        <v>388.5216322469056</v>
+        <v>388.5216322469058</v>
       </c>
       <c r="H44" t="n">
-        <v>289.3547940983974</v>
+        <v>289.3547940983976</v>
       </c>
       <c r="I44" t="n">
-        <v>88.85543405333669</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>127.2143363026615</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>158.1704194390197</v>
+        <v>28.76468076387606</v>
       </c>
       <c r="W44" t="n">
-        <v>324.9853770700834</v>
+        <v>324.9853770700835</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>345.4755090311396</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.9823470087239</v>
+        <v>361.9823470087241</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9912294512982</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>71.1985789486469</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>180.0183729338697</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>198.8496025153215</v>
+        <v>198.8496025153217</v>
       </c>
       <c r="U46" t="n">
-        <v>262.0016454291745</v>
+        <v>262.0016454291746</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8820516764983</v>
+        <v>227.8820516764985</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>262.2674066892615</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4540637417075</v>
+        <v>201.4540637417077</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.45638325274241</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.54871502261838</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="C2" t="n">
-        <v>64.54871502261838</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="D2" t="n">
-        <v>64.54871502261838</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="E2" t="n">
-        <v>64.54871502261838</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="F2" t="n">
-        <v>57.60321427341491</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G2" t="n">
-        <v>42.14590365206637</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H2" t="n">
-        <v>42.14590365206637</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I2" t="n">
         <v>14.27719126790864</v>
@@ -4331,19 +4331,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K2" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M2" t="n">
         <v>28.41772601812563</v>
       </c>
-      <c r="L2" t="n">
-        <v>28.41772601812563</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="O2" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="P2" t="n">
         <v>110.3601010412646</v>
@@ -4352,28 +4352,28 @@
         <v>100.2684856730375</v>
       </c>
       <c r="R2" t="n">
-        <v>100.2684856730375</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S2" t="n">
-        <v>100.2684856730375</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T2" t="n">
-        <v>100.2684856730375</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U2" t="n">
-        <v>100.2684856730375</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V2" t="n">
-        <v>72.39977328887976</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="W2" t="n">
-        <v>64.54871502261838</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="X2" t="n">
-        <v>64.54871502261838</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.54871502261838</v>
+        <v>70.01461603622408</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="D3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="E3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="F3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J3" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K3" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L3" t="n">
-        <v>56.83545203625125</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M3" t="n">
-        <v>56.83545203625125</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N3" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O3" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P3" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q3" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S3" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T3" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U3" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V3" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W3" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X3" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.81333917329844</v>
+        <v>59.81587415154178</v>
       </c>
       <c r="C4" t="n">
-        <v>85.81333917329844</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="D4" t="n">
-        <v>85.81333917329844</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="E4" t="n">
-        <v>57.94462678914073</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="F4" t="n">
-        <v>30.07591440498301</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="G4" t="n">
-        <v>30.07591440498301</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="H4" t="n">
-        <v>30.07591440498301</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="I4" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="J4" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4888536788635</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.81333917329844</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="R4" t="n">
-        <v>85.81333917329844</v>
+        <v>107.6111710058034</v>
       </c>
       <c r="S4" t="n">
-        <v>85.81333917329844</v>
+        <v>79.74245862164571</v>
       </c>
       <c r="T4" t="n">
-        <v>85.81333917329844</v>
+        <v>79.74245862164571</v>
       </c>
       <c r="U4" t="n">
-        <v>85.81333917329844</v>
+        <v>79.74245862164571</v>
       </c>
       <c r="V4" t="n">
-        <v>85.81333917329844</v>
+        <v>79.74245862164571</v>
       </c>
       <c r="W4" t="n">
-        <v>85.81333917329844</v>
+        <v>79.74245862164571</v>
       </c>
       <c r="X4" t="n">
-        <v>85.81333917329844</v>
+        <v>79.74245862164571</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.81333917329844</v>
+        <v>79.74245862164571</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.6100133913773</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="C5" t="n">
-        <v>24.6100133913773</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="D5" t="n">
-        <v>24.6100133913773</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="E5" t="n">
-        <v>24.6100133913773</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="F5" t="n">
-        <v>17.66451264217383</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J5" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L5" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M5" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N5" t="n">
-        <v>56.83545203625125</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P5" t="n">
         <v>110.3601010412646</v>
@@ -4589,28 +4589,28 @@
         <v>100.2684856730375</v>
       </c>
       <c r="R5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W5" t="n">
-        <v>52.47872577553502</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X5" t="n">
-        <v>24.6100133913773</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.6100133913773</v>
+        <v>100.2684856730375</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.62267627294912</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7539638887914</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="D6" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="E6" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="F6" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="G6" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="H6" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J6" t="n">
         <v>2.207202020825291</v>
@@ -4650,19 +4650,19 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L6" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M6" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N6" t="n">
-        <v>84.14957704396423</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O6" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P6" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q6" t="n">
         <v>110.3601010412646</v>
@@ -4674,22 +4674,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T6" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U6" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V6" t="n">
-        <v>82.49138865710684</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="W6" t="n">
-        <v>54.62267627294912</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="X6" t="n">
-        <v>54.62267627294912</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.62267627294912</v>
+        <v>86.56747182608416</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.75142891054807</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C7" t="n">
-        <v>52.75142891054807</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D7" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E7" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F7" t="n">
         <v>2.207202020825291</v>
@@ -4753,22 +4753,22 @@
         <v>108.4888536788635</v>
       </c>
       <c r="T7" t="n">
-        <v>80.62014129470579</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U7" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V7" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W7" t="n">
-        <v>52.75142891054807</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X7" t="n">
-        <v>52.75142891054807</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.75142891054807</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.47872577553503</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="C8" t="n">
-        <v>52.47872577553503</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="D8" t="n">
-        <v>52.47872577553503</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="E8" t="n">
-        <v>52.47872577553503</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="F8" t="n">
-        <v>45.53322502633155</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G8" t="n">
-        <v>30.07591440498301</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H8" t="n">
-        <v>30.07591440498301</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J8" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M8" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L8" t="n">
-        <v>29.52132702853827</v>
-      </c>
-      <c r="M8" t="n">
-        <v>56.83545203625125</v>
-      </c>
       <c r="N8" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O8" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P8" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T8" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U8" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V8" t="n">
-        <v>80.34743815969274</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W8" t="n">
-        <v>52.47872577553503</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X8" t="n">
-        <v>52.47872577553503</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y8" t="n">
-        <v>52.47872577553503</v>
+        <v>70.01461603622408</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F9" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G9" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J9" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>55.73185102583861</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M9" t="n">
         <v>55.73185102583861</v>
@@ -4896,10 +4896,10 @@
         <v>83.04597603355158</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
@@ -4908,25 +4908,25 @@
         <v>82.49138865710684</v>
       </c>
       <c r="S9" t="n">
-        <v>54.62267627294912</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T9" t="n">
-        <v>54.62267627294912</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>105.7399236434024</v>
+      </c>
+      <c r="C10" t="n">
+        <v>105.7399236434024</v>
+      </c>
+      <c r="D10" t="n">
+        <v>85.81333917329844</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="F10" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
         <v>2.207202020825291</v>
@@ -4978,34 +4978,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="S10" t="n">
-        <v>85.81333917329844</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="T10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="U10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="V10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="W10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="X10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.07591440498301</v>
+        <v>105.7399236434024</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1845.995404218652</v>
+        <v>1845.995404218653</v>
       </c>
       <c r="C11" t="n">
-        <v>1562.508205348073</v>
+        <v>1562.508205348074</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.717824811155</v>
+        <v>1289.717824811157</v>
       </c>
       <c r="E11" t="n">
-        <v>989.4048902827442</v>
+        <v>989.4048902827451</v>
       </c>
       <c r="F11" t="n">
-        <v>663.8943035629695</v>
+        <v>663.8943035629704</v>
       </c>
       <c r="G11" t="n">
-        <v>332.4229308305445</v>
+        <v>332.4229308305455</v>
       </c>
       <c r="H11" t="n">
         <v>101.1200814804511</v>
       </c>
       <c r="I11" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J11" t="n">
-        <v>272.7183553404392</v>
+        <v>105.3127063200861</v>
       </c>
       <c r="K11" t="n">
-        <v>693.7756164733491</v>
+        <v>526.3699674529962</v>
       </c>
       <c r="L11" t="n">
-        <v>1268.411008880852</v>
+        <v>1101.005359860499</v>
       </c>
       <c r="M11" t="n">
-        <v>1924.41014879372</v>
+        <v>1757.004499773367</v>
       </c>
       <c r="N11" t="n">
-        <v>2576.39204307055</v>
+        <v>2408.986394050197</v>
       </c>
       <c r="O11" t="n">
-        <v>2899.096129616809</v>
+        <v>2979.446770955293</v>
       </c>
       <c r="P11" t="n">
-        <v>3348.296480330503</v>
+        <v>3428.647121668987</v>
       </c>
       <c r="Q11" t="n">
         <v>3608.405476546758</v>
       </c>
       <c r="R11" t="n">
-        <v>3617.091911823978</v>
+        <v>3617.091911823979</v>
       </c>
       <c r="S11" t="n">
-        <v>3549.567302671598</v>
+        <v>3549.567302671599</v>
       </c>
       <c r="T11" t="n">
         <v>3420.860384692297</v>
       </c>
       <c r="U11" t="n">
-        <v>3252.655286784185</v>
+        <v>3252.655286784187</v>
       </c>
       <c r="V11" t="n">
-        <v>3007.067717510447</v>
+        <v>3007.067717510449</v>
       </c>
       <c r="W11" t="n">
-        <v>2739.774380310166</v>
+        <v>2739.774380310168</v>
       </c>
       <c r="X11" t="n">
-        <v>2451.783940118919</v>
+        <v>2451.78394011892</v>
       </c>
       <c r="Y11" t="n">
-        <v>2147.119926212941</v>
+        <v>2147.119926212942</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>115.6475767884066</v>
       </c>
       <c r="I12" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J12" t="n">
-        <v>73.16121443702424</v>
+        <v>197.991339424029</v>
       </c>
       <c r="K12" t="n">
-        <v>152.7164835970007</v>
+        <v>539.3671932264583</v>
       </c>
       <c r="L12" t="n">
-        <v>571.1045458490037</v>
+        <v>1059.793553347626</v>
       </c>
       <c r="M12" t="n">
-        <v>1230.396782825132</v>
+        <v>1258.037777211254</v>
       </c>
       <c r="N12" t="n">
-        <v>1922.845536916196</v>
+        <v>1475.937580702201</v>
       </c>
       <c r="O12" t="n">
-        <v>2489.885187813665</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.703290126629</v>
+        <v>2404.726775268138</v>
       </c>
       <c r="Q12" t="n">
         <v>2644.884742563894</v>
@@ -5185,7 +5185,7 @@
         <v>322.1744356666913</v>
       </c>
       <c r="F13" t="n">
-        <v>260.7598062386138</v>
+        <v>260.7598062386139</v>
       </c>
       <c r="G13" t="n">
         <v>177.6915678518461</v>
@@ -5194,10 +5194,10 @@
         <v>109.4749355483496</v>
       </c>
       <c r="I13" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J13" t="n">
-        <v>142.9827718016395</v>
+        <v>142.9827718016396</v>
       </c>
       <c r="K13" t="n">
         <v>335.01171494236</v>
@@ -5206,13 +5206,13 @@
         <v>612.8411054294154</v>
       </c>
       <c r="M13" t="n">
-        <v>911.608409690839</v>
+        <v>911.6084096908392</v>
       </c>
       <c r="N13" t="n">
         <v>1210.698278674372</v>
       </c>
       <c r="O13" t="n">
-        <v>1477.335065473173</v>
+        <v>1477.335065473174</v>
       </c>
       <c r="P13" t="n">
         <v>1694.059139721419</v>
@@ -5236,10 +5236,10 @@
         <v>1110.660890009245</v>
       </c>
       <c r="W13" t="n">
-        <v>906.7190380421168</v>
+        <v>906.7190380421169</v>
       </c>
       <c r="X13" t="n">
-        <v>764.2048052139324</v>
+        <v>764.2048052139326</v>
       </c>
       <c r="Y13" t="n">
         <v>628.8875441402351</v>
@@ -5255,25 +5255,25 @@
         <v>1845.995404218653</v>
       </c>
       <c r="C14" t="n">
-        <v>1562.508205348074</v>
+        <v>1562.508205348073</v>
       </c>
       <c r="D14" t="n">
-        <v>1289.717824811156</v>
+        <v>1289.717824811155</v>
       </c>
       <c r="E14" t="n">
-        <v>989.4048902827449</v>
+        <v>989.4048902827438</v>
       </c>
       <c r="F14" t="n">
-        <v>663.8943035629702</v>
+        <v>663.8943035629692</v>
       </c>
       <c r="G14" t="n">
-        <v>332.4229308305453</v>
+        <v>332.4229308305443</v>
       </c>
       <c r="H14" t="n">
         <v>101.1200814804511</v>
       </c>
       <c r="I14" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J14" t="n">
         <v>105.3127063200861</v>
@@ -5297,13 +5297,13 @@
         <v>3428.647121668987</v>
       </c>
       <c r="Q14" t="n">
-        <v>3608.405476546758</v>
+        <v>3617.091911823979</v>
       </c>
       <c r="R14" t="n">
-        <v>3617.091911823978</v>
+        <v>3617.091911823979</v>
       </c>
       <c r="S14" t="n">
-        <v>3549.567302671598</v>
+        <v>3549.567302671599</v>
       </c>
       <c r="T14" t="n">
         <v>3420.860384692297</v>
@@ -5352,7 +5352,7 @@
         <v>115.6475767884066</v>
       </c>
       <c r="I15" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J15" t="n">
         <v>197.991339424029</v>
@@ -5361,19 +5361,19 @@
         <v>539.3671932264583</v>
       </c>
       <c r="L15" t="n">
-        <v>730.3753554955838</v>
+        <v>1059.793553347626</v>
       </c>
       <c r="M15" t="n">
-        <v>1389.667592471712</v>
+        <v>1571.614773697183</v>
       </c>
       <c r="N15" t="n">
-        <v>1607.567395962659</v>
+        <v>1789.51457718813</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.607046860127</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.703290126629</v>
+        <v>2404.726775268138</v>
       </c>
       <c r="Q15" t="n">
         <v>2644.884742563894</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>532.7143973798281</v>
+        <v>532.7143973798285</v>
       </c>
       <c r="C16" t="n">
-        <v>449.2535325217542</v>
+        <v>449.2535325217544</v>
       </c>
       <c r="D16" t="n">
-        <v>384.6122111792513</v>
+        <v>384.6122111792516</v>
       </c>
       <c r="E16" t="n">
-        <v>322.1744356666911</v>
+        <v>322.1744356666914</v>
       </c>
       <c r="F16" t="n">
-        <v>260.7598062386136</v>
+        <v>260.7598062386139</v>
       </c>
       <c r="G16" t="n">
-        <v>177.6915678518458</v>
+        <v>177.6915678518461</v>
       </c>
       <c r="H16" t="n">
         <v>109.4749355483496</v>
       </c>
       <c r="I16" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J16" t="n">
-        <v>142.9827718016395</v>
+        <v>142.9827718016397</v>
       </c>
       <c r="K16" t="n">
-        <v>335.0117149423598</v>
+        <v>335.0117149423602</v>
       </c>
       <c r="L16" t="n">
-        <v>612.8411054294152</v>
+        <v>612.8411054294155</v>
       </c>
       <c r="M16" t="n">
-        <v>911.608409690839</v>
+        <v>911.6084096908394</v>
       </c>
       <c r="N16" t="n">
         <v>1210.698278674372</v>
@@ -5458,7 +5458,7 @@
         <v>1786.445910150577</v>
       </c>
       <c r="R16" t="n">
-        <v>1744.288950198785</v>
+        <v>1744.288950198784</v>
       </c>
       <c r="S16" t="n">
         <v>1623.42693030781</v>
@@ -5473,13 +5473,13 @@
         <v>1110.660890009245</v>
       </c>
       <c r="W16" t="n">
-        <v>906.7190380421166</v>
+        <v>906.7190380421168</v>
       </c>
       <c r="X16" t="n">
-        <v>764.2048052139321</v>
+        <v>764.2048052139323</v>
       </c>
       <c r="Y16" t="n">
-        <v>628.8875441402349</v>
+        <v>628.8875441402353</v>
       </c>
     </row>
     <row r="17">
@@ -5495,49 +5495,49 @@
         <v>1562.508205348073</v>
       </c>
       <c r="D17" t="n">
-        <v>1289.717824811155</v>
+        <v>1289.717824811156</v>
       </c>
       <c r="E17" t="n">
-        <v>989.404890282744</v>
+        <v>989.4048902827444</v>
       </c>
       <c r="F17" t="n">
-        <v>663.8943035629693</v>
+        <v>663.8943035629698</v>
       </c>
       <c r="G17" t="n">
-        <v>332.4229308305443</v>
+        <v>332.4229308305448</v>
       </c>
       <c r="H17" t="n">
         <v>101.1200814804511</v>
       </c>
       <c r="I17" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J17" t="n">
         <v>105.3127063200861</v>
       </c>
       <c r="K17" t="n">
-        <v>526.3699674529962</v>
+        <v>454.7057613917332</v>
       </c>
       <c r="L17" t="n">
-        <v>1101.005359860499</v>
+        <v>1029.341153799236</v>
       </c>
       <c r="M17" t="n">
-        <v>1757.004499773367</v>
+        <v>1685.340293712103</v>
       </c>
       <c r="N17" t="n">
-        <v>2328.635752711713</v>
+        <v>2337.322187988934</v>
       </c>
       <c r="O17" t="n">
-        <v>2899.096129616809</v>
+        <v>2907.78256489403</v>
       </c>
       <c r="P17" t="n">
-        <v>3348.296480330503</v>
+        <v>3356.982915607724</v>
       </c>
       <c r="Q17" t="n">
-        <v>3608.405476546758</v>
+        <v>3617.091911823979</v>
       </c>
       <c r="R17" t="n">
-        <v>3617.091911823978</v>
+        <v>3617.091911823979</v>
       </c>
       <c r="S17" t="n">
         <v>3549.567302671598</v>
@@ -5589,28 +5589,28 @@
         <v>115.6475767884066</v>
       </c>
       <c r="I18" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J18" t="n">
-        <v>73.16121443702424</v>
+        <v>197.991339424029</v>
       </c>
       <c r="K18" t="n">
-        <v>152.7164835970007</v>
+        <v>539.3671932264583</v>
       </c>
       <c r="L18" t="n">
-        <v>673.1428437181685</v>
+        <v>983.4468537495931</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.435080694296</v>
+        <v>1181.691077613221</v>
       </c>
       <c r="N18" t="n">
-        <v>2024.883834785361</v>
+        <v>1399.590881104168</v>
       </c>
       <c r="O18" t="n">
-        <v>2489.885187813665</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.703290126629</v>
+        <v>2404.726775268138</v>
       </c>
       <c r="Q18" t="n">
         <v>2644.884742563894</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>532.7143973798276</v>
+        <v>532.7143973798289</v>
       </c>
       <c r="C19" t="n">
-        <v>449.2535325217536</v>
+        <v>449.2535325217549</v>
       </c>
       <c r="D19" t="n">
-        <v>384.6122111792507</v>
+        <v>384.6122111792516</v>
       </c>
       <c r="E19" t="n">
-        <v>322.1744356666905</v>
+        <v>322.1744356666914</v>
       </c>
       <c r="F19" t="n">
         <v>260.7598062386139</v>
       </c>
       <c r="G19" t="n">
-        <v>177.6915678518462</v>
+        <v>177.6915678518461</v>
       </c>
       <c r="H19" t="n">
         <v>109.4749355483496</v>
       </c>
       <c r="I19" t="n">
-        <v>72.34183823647956</v>
+        <v>72.34183823647957</v>
       </c>
       <c r="J19" t="n">
         <v>142.9827718016395</v>
       </c>
       <c r="K19" t="n">
-        <v>335.0117149423598</v>
+        <v>335.01171494236</v>
       </c>
       <c r="L19" t="n">
-        <v>612.8411054294153</v>
+        <v>612.8411054294154</v>
       </c>
       <c r="M19" t="n">
-        <v>911.6084096908392</v>
+        <v>911.608409690839</v>
       </c>
       <c r="N19" t="n">
         <v>1210.698278674372</v>
       </c>
       <c r="O19" t="n">
-        <v>1477.335065473174</v>
+        <v>1477.335065473173</v>
       </c>
       <c r="P19" t="n">
         <v>1694.059139721419</v>
@@ -5704,19 +5704,19 @@
         <v>1483.543466395167</v>
       </c>
       <c r="U19" t="n">
-        <v>1279.870060145298</v>
+        <v>1279.870060145299</v>
       </c>
       <c r="V19" t="n">
-        <v>1110.660890009244</v>
+        <v>1110.660890009245</v>
       </c>
       <c r="W19" t="n">
-        <v>906.7190380421166</v>
+        <v>906.7190380421174</v>
       </c>
       <c r="X19" t="n">
-        <v>764.204805213932</v>
+        <v>764.204805213933</v>
       </c>
       <c r="Y19" t="n">
-        <v>628.8875441402344</v>
+        <v>628.8875441402357</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1845.995404218652</v>
+        <v>1845.995404218653</v>
       </c>
       <c r="C20" t="n">
-        <v>1562.508205348073</v>
+        <v>1562.508205348074</v>
       </c>
       <c r="D20" t="n">
         <v>1289.717824811156</v>
@@ -5744,34 +5744,34 @@
         <v>332.4229308305448</v>
       </c>
       <c r="H20" t="n">
-        <v>101.1200814804511</v>
+        <v>101.1200814804506</v>
       </c>
       <c r="I20" t="n">
         <v>72.34183823647956</v>
       </c>
       <c r="J20" t="n">
-        <v>272.7183553404392</v>
+        <v>105.3127063200861</v>
       </c>
       <c r="K20" t="n">
-        <v>693.7756164733493</v>
+        <v>526.3699674529962</v>
       </c>
       <c r="L20" t="n">
-        <v>1268.411008880852</v>
+        <v>1101.005359860499</v>
       </c>
       <c r="M20" t="n">
-        <v>1924.41014879372</v>
+        <v>1757.004499773367</v>
       </c>
       <c r="N20" t="n">
-        <v>2328.635752711713</v>
+        <v>2408.986394050197</v>
       </c>
       <c r="O20" t="n">
-        <v>2899.096129616809</v>
+        <v>2979.446770955293</v>
       </c>
       <c r="P20" t="n">
-        <v>3348.296480330503</v>
+        <v>3428.647121668987</v>
       </c>
       <c r="Q20" t="n">
-        <v>3608.405476546758</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="R20" t="n">
         <v>3617.091911823978</v>
@@ -5783,19 +5783,19 @@
         <v>3420.860384692297</v>
       </c>
       <c r="U20" t="n">
-        <v>3252.655286784187</v>
+        <v>3252.655286784186</v>
       </c>
       <c r="V20" t="n">
         <v>3007.067717510448</v>
       </c>
       <c r="W20" t="n">
-        <v>2739.774380310168</v>
+        <v>2739.774380310167</v>
       </c>
       <c r="X20" t="n">
         <v>2451.78394011892</v>
       </c>
       <c r="Y20" t="n">
-        <v>2147.119926212941</v>
+        <v>2147.119926212942</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>197.991339424029</v>
       </c>
       <c r="K21" t="n">
-        <v>317.2506214694629</v>
+        <v>539.3671932264583</v>
       </c>
       <c r="L21" t="n">
-        <v>837.6769815906307</v>
+        <v>1059.793553347626</v>
       </c>
       <c r="M21" t="n">
-        <v>1496.969218566759</v>
+        <v>1258.037777211254</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.869022057706</v>
+        <v>1475.937580702201</v>
       </c>
       <c r="O21" t="n">
-        <v>2281.908672955175</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P21" t="n">
         <v>2404.726775268138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>532.7143973798281</v>
+        <v>532.7143973798285</v>
       </c>
       <c r="C22" t="n">
-        <v>449.2535325217541</v>
+        <v>449.2535325217544</v>
       </c>
       <c r="D22" t="n">
-        <v>384.6122111792512</v>
+        <v>384.6122111792516</v>
       </c>
       <c r="E22" t="n">
-        <v>322.174435666691</v>
+        <v>322.1744356666914</v>
       </c>
       <c r="F22" t="n">
-        <v>260.7598062386135</v>
+        <v>260.7598062386139</v>
       </c>
       <c r="G22" t="n">
-        <v>177.6915678518457</v>
+        <v>177.6915678518461</v>
       </c>
       <c r="H22" t="n">
-        <v>109.4749355483492</v>
+        <v>109.4749355483495</v>
       </c>
       <c r="I22" t="n">
         <v>72.34183823647956</v>
@@ -5911,16 +5911,16 @@
         <v>142.9827718016395</v>
       </c>
       <c r="K22" t="n">
-        <v>335.01171494236</v>
+        <v>335.0117149423602</v>
       </c>
       <c r="L22" t="n">
-        <v>612.8411054294154</v>
+        <v>612.8411054294153</v>
       </c>
       <c r="M22" t="n">
         <v>911.6084096908392</v>
       </c>
       <c r="N22" t="n">
-        <v>1210.698278674372</v>
+        <v>1210.698278674373</v>
       </c>
       <c r="O22" t="n">
         <v>1477.335065473174</v>
@@ -5932,7 +5932,7 @@
         <v>1786.445910150577</v>
       </c>
       <c r="R22" t="n">
-        <v>1744.288950198784</v>
+        <v>1744.288950198785</v>
       </c>
       <c r="S22" t="n">
         <v>1623.42693030781</v>
@@ -5941,19 +5941,19 @@
         <v>1483.543466395167</v>
       </c>
       <c r="U22" t="n">
-        <v>1279.870060145298</v>
+        <v>1279.870060145299</v>
       </c>
       <c r="V22" t="n">
-        <v>1110.660890009244</v>
+        <v>1110.660890009245</v>
       </c>
       <c r="W22" t="n">
-        <v>906.7190380421166</v>
+        <v>906.7190380421169</v>
       </c>
       <c r="X22" t="n">
-        <v>764.2048052139321</v>
+        <v>764.2048052139326</v>
       </c>
       <c r="Y22" t="n">
-        <v>628.8875441402349</v>
+        <v>628.8875441402353</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1845.995404218651</v>
       </c>
       <c r="C23" t="n">
-        <v>1562.508205348073</v>
+        <v>1562.508205348072</v>
       </c>
       <c r="D23" t="n">
         <v>1289.717824811155</v>
       </c>
       <c r="E23" t="n">
-        <v>989.4048902827437</v>
+        <v>989.4048902827433</v>
       </c>
       <c r="F23" t="n">
-        <v>663.8943035629691</v>
+        <v>663.8943035629686</v>
       </c>
       <c r="G23" t="n">
-        <v>332.4229308305445</v>
+        <v>332.4229308305436</v>
       </c>
       <c r="H23" t="n">
         <v>101.1200814804511</v>
@@ -5996,43 +5996,43 @@
         <v>1268.411008880852</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.340293712103</v>
+        <v>1924.41014879372</v>
       </c>
       <c r="N23" t="n">
-        <v>2337.322187988934</v>
+        <v>2576.39204307055</v>
       </c>
       <c r="O23" t="n">
-        <v>2907.782564894029</v>
+        <v>3146.852419975646</v>
       </c>
       <c r="P23" t="n">
-        <v>3356.982915607723</v>
+        <v>3348.296480330503</v>
       </c>
       <c r="Q23" t="n">
-        <v>3617.091911823978</v>
+        <v>3608.405476546758</v>
       </c>
       <c r="R23" t="n">
         <v>3617.091911823978</v>
       </c>
       <c r="S23" t="n">
-        <v>3549.567302671598</v>
+        <v>3549.567302671597</v>
       </c>
       <c r="T23" t="n">
-        <v>3420.860384692297</v>
+        <v>3420.860384692296</v>
       </c>
       <c r="U23" t="n">
-        <v>3252.655286784186</v>
+        <v>3252.655286784185</v>
       </c>
       <c r="V23" t="n">
         <v>3007.067717510447</v>
       </c>
       <c r="W23" t="n">
-        <v>2739.774380310167</v>
+        <v>2739.774380310166</v>
       </c>
       <c r="X23" t="n">
         <v>2451.783940118919</v>
       </c>
       <c r="Y23" t="n">
-        <v>2147.11992621294</v>
+        <v>2147.119926212939</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>1059.793553347626</v>
       </c>
       <c r="M24" t="n">
-        <v>1719.085790323754</v>
+        <v>1258.037777211254</v>
       </c>
       <c r="N24" t="n">
-        <v>1936.985593814701</v>
+        <v>1475.937580702201</v>
       </c>
       <c r="O24" t="n">
-        <v>2489.885187813665</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.703290126629</v>
+        <v>2404.726775268138</v>
       </c>
       <c r="Q24" t="n">
         <v>2644.884742563894</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>532.7143973798278</v>
+        <v>532.7143973798286</v>
       </c>
       <c r="C25" t="n">
-        <v>449.2535325217538</v>
+        <v>449.2535325217546</v>
       </c>
       <c r="D25" t="n">
-        <v>384.6122111792509</v>
+        <v>384.6122111792517</v>
       </c>
       <c r="E25" t="n">
-        <v>322.1744356666907</v>
+        <v>322.1744356666914</v>
       </c>
       <c r="F25" t="n">
-        <v>260.7598062386132</v>
+        <v>260.7598062386139</v>
       </c>
       <c r="G25" t="n">
-        <v>177.6915678518456</v>
+        <v>177.6915678518461</v>
       </c>
       <c r="H25" t="n">
-        <v>109.4749355483491</v>
+        <v>109.4749355483496</v>
       </c>
       <c r="I25" t="n">
         <v>72.34183823647956</v>
@@ -6148,7 +6148,7 @@
         <v>142.9827718016395</v>
       </c>
       <c r="K25" t="n">
-        <v>335.0117149423599</v>
+        <v>335.0117149423598</v>
       </c>
       <c r="L25" t="n">
         <v>612.8411054294153</v>
@@ -6175,22 +6175,22 @@
         <v>1623.42693030781</v>
       </c>
       <c r="T25" t="n">
-        <v>1483.543466395166</v>
+        <v>1483.543466395167</v>
       </c>
       <c r="U25" t="n">
-        <v>1279.870060145298</v>
+        <v>1279.870060145299</v>
       </c>
       <c r="V25" t="n">
-        <v>1110.660890009244</v>
+        <v>1110.660890009245</v>
       </c>
       <c r="W25" t="n">
-        <v>906.7190380421163</v>
+        <v>906.7190380421169</v>
       </c>
       <c r="X25" t="n">
-        <v>764.2048052139319</v>
+        <v>764.2048052139326</v>
       </c>
       <c r="Y25" t="n">
-        <v>628.8875441402346</v>
+        <v>628.8875441402354</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1966.671257209757</v>
+        <v>1966.671257209759</v>
       </c>
       <c r="C26" t="n">
-        <v>1666.666972315256</v>
+        <v>1666.666972315258</v>
       </c>
       <c r="D26" t="n">
-        <v>1377.359505754416</v>
+        <v>1377.359505754418</v>
       </c>
       <c r="E26" t="n">
-        <v>1060.529485202082</v>
+        <v>1060.529485202084</v>
       </c>
       <c r="F26" t="n">
-        <v>718.5018124583858</v>
+        <v>718.5018124583867</v>
       </c>
       <c r="G26" t="n">
-        <v>370.5133537020383</v>
+        <v>370.5133537020392</v>
       </c>
       <c r="H26" t="n">
         <v>122.6934183280233</v>
@@ -6227,7 +6227,7 @@
         <v>277.7746061640887</v>
       </c>
       <c r="K26" t="n">
-        <v>698.8318672969988</v>
+        <v>698.8318672969986</v>
       </c>
       <c r="L26" t="n">
         <v>1273.467259704501</v>
@@ -6239,10 +6239,10 @@
         <v>2581.4482938942</v>
       </c>
       <c r="O26" t="n">
-        <v>3151.908670799296</v>
+        <v>3151.908670799295</v>
       </c>
       <c r="P26" t="n">
-        <v>3601.10902151299</v>
+        <v>3601.109021512989</v>
       </c>
       <c r="Q26" t="n">
         <v>3861.218017729244</v>
@@ -6251,25 +6251,25 @@
         <v>3869.904453006465</v>
       </c>
       <c r="S26" t="n">
-        <v>3785.862757830161</v>
+        <v>3785.862757830162</v>
       </c>
       <c r="T26" t="n">
-        <v>3640.638753826937</v>
+        <v>3640.638753826939</v>
       </c>
       <c r="U26" t="n">
-        <v>3455.916569894904</v>
+        <v>3455.916569894905</v>
       </c>
       <c r="V26" t="n">
-        <v>3193.811914597243</v>
+        <v>3193.811914597245</v>
       </c>
       <c r="W26" t="n">
-        <v>2910.001491373039</v>
+        <v>2910.001491373041</v>
       </c>
       <c r="X26" t="n">
-        <v>2605.49396515787</v>
+        <v>2605.493965157872</v>
       </c>
       <c r="Y26" t="n">
-        <v>2284.312865227968</v>
+        <v>2284.31286522797</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>544.4234440501079</v>
       </c>
       <c r="L27" t="n">
-        <v>697.7178623208511</v>
+        <v>1064.849804171276</v>
       </c>
       <c r="M27" t="n">
-        <v>895.9620861844791</v>
+        <v>1263.094028034904</v>
       </c>
       <c r="N27" t="n">
-        <v>1588.410840275544</v>
+        <v>1480.993831525851</v>
       </c>
       <c r="O27" t="n">
-        <v>2155.450491173013</v>
+        <v>1971.686782825286</v>
       </c>
       <c r="P27" t="n">
         <v>2409.783026091788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.4440529894241</v>
+        <v>396.9183489717623</v>
       </c>
       <c r="C28" t="n">
-        <v>337.0966823737276</v>
+        <v>296.9403980897661</v>
       </c>
       <c r="D28" t="n">
-        <v>255.9382750073023</v>
+        <v>215.7819907233408</v>
       </c>
       <c r="E28" t="n">
-        <v>176.9834134708195</v>
+        <v>215.7819907233408</v>
       </c>
       <c r="F28" t="n">
-        <v>176.9834134708195</v>
+        <v>215.7819907233408</v>
       </c>
       <c r="G28" t="n">
-        <v>77.39808906012929</v>
+        <v>215.7819907233408</v>
       </c>
       <c r="H28" t="n">
-        <v>77.39808906012929</v>
+        <v>131.0482723959218</v>
       </c>
       <c r="I28" t="n">
         <v>77.39808906012929</v>
       </c>
       <c r="J28" t="n">
-        <v>131.8506266132426</v>
+        <v>131.8506266132428</v>
       </c>
       <c r="K28" t="n">
         <v>307.6911737419168</v>
       </c>
       <c r="L28" t="n">
-        <v>569.3321682169258</v>
+        <v>569.3321682169259</v>
       </c>
       <c r="M28" t="n">
         <v>851.9110764663033</v>
@@ -6406,28 +6406,28 @@
         <v>1661.994992877855</v>
       </c>
       <c r="R28" t="n">
-        <v>1603.32094690214</v>
+        <v>1661.994992877855</v>
       </c>
       <c r="S28" t="n">
-        <v>1465.941840987243</v>
+        <v>1524.615886962958</v>
       </c>
       <c r="T28" t="n">
-        <v>1309.541291050678</v>
+        <v>1368.215337026393</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.350798776887</v>
+        <v>1148.024844752602</v>
       </c>
       <c r="V28" t="n">
-        <v>903.6245426169104</v>
+        <v>962.2985885926255</v>
       </c>
       <c r="W28" t="n">
-        <v>683.1656046258602</v>
+        <v>741.8396506015753</v>
       </c>
       <c r="X28" t="n">
-        <v>524.1342857737534</v>
+        <v>582.8083317494684</v>
       </c>
       <c r="Y28" t="n">
-        <v>524.1342857737534</v>
+        <v>430.9739846518487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1966.671257209759</v>
+        <v>1966.671257209758</v>
       </c>
       <c r="C29" t="n">
-        <v>1666.666972315258</v>
+        <v>1666.666972315257</v>
       </c>
       <c r="D29" t="n">
-        <v>1377.359505754418</v>
+        <v>1377.359505754417</v>
       </c>
       <c r="E29" t="n">
-        <v>1060.529485202084</v>
+        <v>1060.529485202083</v>
       </c>
       <c r="F29" t="n">
-        <v>718.5018124583871</v>
+        <v>718.5018124583858</v>
       </c>
       <c r="G29" t="n">
-        <v>370.5133537020397</v>
+        <v>370.5133537020383</v>
       </c>
       <c r="H29" t="n">
-        <v>122.6934183280232</v>
+        <v>122.6934183280233</v>
       </c>
       <c r="I29" t="n">
         <v>77.39808906012929</v>
       </c>
       <c r="J29" t="n">
-        <v>277.774606164089</v>
+        <v>277.7746061640887</v>
       </c>
       <c r="K29" t="n">
         <v>698.831867296999</v>
@@ -6485,28 +6485,28 @@
         <v>3861.218017729244</v>
       </c>
       <c r="R29" t="n">
-        <v>3869.904453006464</v>
+        <v>3869.904453006465</v>
       </c>
       <c r="S29" t="n">
-        <v>3785.862757830162</v>
+        <v>3785.862757830161</v>
       </c>
       <c r="T29" t="n">
-        <v>3640.638753826938</v>
+        <v>3640.638753826937</v>
       </c>
       <c r="U29" t="n">
         <v>3455.916569894905</v>
       </c>
       <c r="V29" t="n">
-        <v>3193.811914597245</v>
+        <v>3193.811914597244</v>
       </c>
       <c r="W29" t="n">
-        <v>2910.001491373042</v>
+        <v>2910.00149137304</v>
       </c>
       <c r="X29" t="n">
-        <v>2605.493965157872</v>
+        <v>2605.493965157871</v>
       </c>
       <c r="Y29" t="n">
-        <v>2284.312865227971</v>
+        <v>2284.312865227969</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>78.21746526067398</v>
       </c>
       <c r="K30" t="n">
-        <v>214.8898635434193</v>
+        <v>157.7727344206505</v>
       </c>
       <c r="L30" t="n">
-        <v>368.1842818141624</v>
+        <v>678.1990945418183</v>
       </c>
       <c r="M30" t="n">
-        <v>1027.47651879029</v>
+        <v>1337.491331517946</v>
       </c>
       <c r="N30" t="n">
-        <v>1719.925272881355</v>
+        <v>1612.623646786308</v>
       </c>
       <c r="O30" t="n">
-        <v>2286.964923778824</v>
+        <v>2179.663297683777</v>
       </c>
       <c r="P30" t="n">
-        <v>2409.783026091788</v>
+        <v>2617.759540950278</v>
       </c>
       <c r="Q30" t="n">
         <v>2649.940993387544</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>453.8269750782485</v>
+        <v>315.3673151340309</v>
       </c>
       <c r="C31" t="n">
-        <v>453.8269750782485</v>
+        <v>315.3673151340309</v>
       </c>
       <c r="D31" t="n">
-        <v>372.6685677118232</v>
+        <v>315.3673151340309</v>
       </c>
       <c r="E31" t="n">
-        <v>293.7137061753406</v>
+        <v>315.3673151340309</v>
       </c>
       <c r="F31" t="n">
-        <v>215.7819907233407</v>
+        <v>315.3673151340309</v>
       </c>
       <c r="G31" t="n">
-        <v>215.7819907233407</v>
+        <v>215.7819907233406</v>
       </c>
       <c r="H31" t="n">
         <v>131.0482723959218</v>
@@ -6619,16 +6619,16 @@
         <v>77.39808906012929</v>
       </c>
       <c r="J31" t="n">
-        <v>131.8506266132429</v>
+        <v>131.8506266132428</v>
       </c>
       <c r="K31" t="n">
-        <v>307.6911737419169</v>
+        <v>307.6911737419168</v>
       </c>
       <c r="L31" t="n">
-        <v>569.332168216926</v>
+        <v>569.3321682169258</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9110764663035</v>
+        <v>851.9110764663033</v>
       </c>
       <c r="N31" t="n">
         <v>1134.81254943779</v>
@@ -6640,31 +6640,31 @@
         <v>1585.796618460744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1661.994992877856</v>
+        <v>1661.994992877855</v>
       </c>
       <c r="R31" t="n">
-        <v>1603.320946902141</v>
+        <v>1659.078556144367</v>
       </c>
       <c r="S31" t="n">
-        <v>1465.941840987244</v>
+        <v>1521.69945022947</v>
       </c>
       <c r="T31" t="n">
-        <v>1309.541291050678</v>
+        <v>1365.298900292904</v>
       </c>
       <c r="U31" t="n">
-        <v>1089.350798776888</v>
+        <v>1145.108408019114</v>
       </c>
       <c r="V31" t="n">
-        <v>1089.350798776888</v>
+        <v>959.3821518591374</v>
       </c>
       <c r="W31" t="n">
-        <v>868.8918607858377</v>
+        <v>738.9232138680867</v>
       </c>
       <c r="X31" t="n">
-        <v>718.3515549601974</v>
+        <v>579.8918950159798</v>
       </c>
       <c r="Y31" t="n">
-        <v>566.5172078625778</v>
+        <v>428.0575479183602</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>1966.671257209759</v>
       </c>
       <c r="C32" t="n">
-        <v>1666.666972315258</v>
+        <v>1666.666972315257</v>
       </c>
       <c r="D32" t="n">
-        <v>1377.359505754418</v>
+        <v>1377.359505754417</v>
       </c>
       <c r="E32" t="n">
-        <v>1060.529485202084</v>
+        <v>1060.529485202083</v>
       </c>
       <c r="F32" t="n">
-        <v>718.5018124583867</v>
+        <v>718.5018124583862</v>
       </c>
       <c r="G32" t="n">
         <v>370.5133537020392</v>
@@ -6698,10 +6698,10 @@
         <v>77.39808906012929</v>
       </c>
       <c r="J32" t="n">
-        <v>277.7746061640885</v>
+        <v>277.774606164089</v>
       </c>
       <c r="K32" t="n">
-        <v>698.8318672969986</v>
+        <v>698.831867296999</v>
       </c>
       <c r="L32" t="n">
         <v>1273.467259704501</v>
@@ -6713,16 +6713,16 @@
         <v>2581.4482938942</v>
       </c>
       <c r="O32" t="n">
-        <v>3151.908670799295</v>
+        <v>3151.908670799296</v>
       </c>
       <c r="P32" t="n">
-        <v>3601.109021512989</v>
+        <v>3601.10902151299</v>
       </c>
       <c r="Q32" t="n">
         <v>3861.218017729244</v>
       </c>
       <c r="R32" t="n">
-        <v>3869.904453006464</v>
+        <v>3869.904453006465</v>
       </c>
       <c r="S32" t="n">
         <v>3785.862757830162</v>
@@ -6777,25 +6777,25 @@
         <v>77.39808906012929</v>
       </c>
       <c r="J33" t="n">
-        <v>78.21746526067398</v>
+        <v>203.0475902476787</v>
       </c>
       <c r="K33" t="n">
-        <v>419.5933190631033</v>
+        <v>544.4234440501079</v>
       </c>
       <c r="L33" t="n">
-        <v>940.0196791842711</v>
+        <v>758.1079778981245</v>
       </c>
       <c r="M33" t="n">
-        <v>1138.263903047899</v>
+        <v>1417.400214874252</v>
       </c>
       <c r="N33" t="n">
-        <v>1612.623646786308</v>
+        <v>2109.848968965317</v>
       </c>
       <c r="O33" t="n">
-        <v>2179.663297683777</v>
+        <v>2286.964923778824</v>
       </c>
       <c r="P33" t="n">
-        <v>2617.759540950278</v>
+        <v>2409.783026091788</v>
       </c>
       <c r="Q33" t="n">
         <v>2649.940993387544</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.0712076328262</v>
+        <v>261.7171317982385</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0932567508297</v>
+        <v>261.7171317982385</v>
       </c>
       <c r="D34" t="n">
-        <v>287.9348493844044</v>
+        <v>261.7171317982385</v>
       </c>
       <c r="E34" t="n">
-        <v>208.9799878479217</v>
+        <v>261.7171317982385</v>
       </c>
       <c r="F34" t="n">
-        <v>131.0482723959218</v>
+        <v>261.7171317982385</v>
       </c>
       <c r="G34" t="n">
-        <v>131.0482723959218</v>
+        <v>162.1318073875483</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0482723959218</v>
+        <v>77.39808906012929</v>
       </c>
       <c r="I34" t="n">
         <v>77.39808906012929</v>
       </c>
       <c r="J34" t="n">
-        <v>131.8506266132429</v>
+        <v>131.8506266132428</v>
       </c>
       <c r="K34" t="n">
         <v>307.6911737419168</v>
@@ -6892,16 +6892,16 @@
         <v>1089.350798776887</v>
       </c>
       <c r="V34" t="n">
-        <v>903.6245426169107</v>
+        <v>903.6245426169106</v>
       </c>
       <c r="W34" t="n">
-        <v>683.1656046258605</v>
+        <v>683.1656046258604</v>
       </c>
       <c r="X34" t="n">
-        <v>581.7614404171554</v>
+        <v>524.1342857737534</v>
       </c>
       <c r="Y34" t="n">
-        <v>581.7614404171554</v>
+        <v>372.2999386761341</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>989.404890282744</v>
       </c>
       <c r="F35" t="n">
-        <v>663.8943035629694</v>
+        <v>663.8943035629693</v>
       </c>
       <c r="G35" t="n">
-        <v>332.4229308305445</v>
+        <v>332.4229308305443</v>
       </c>
       <c r="H35" t="n">
         <v>101.1200814804511</v>
@@ -6935,49 +6935,49 @@
         <v>72.34183823647956</v>
       </c>
       <c r="J35" t="n">
-        <v>105.3127063200861</v>
+        <v>272.7183553404392</v>
       </c>
       <c r="K35" t="n">
-        <v>526.3699674529962</v>
+        <v>693.7756164733491</v>
       </c>
       <c r="L35" t="n">
-        <v>1029.341153799235</v>
+        <v>1268.411008880852</v>
       </c>
       <c r="M35" t="n">
-        <v>1685.340293712103</v>
+        <v>1676.653858434883</v>
       </c>
       <c r="N35" t="n">
-        <v>2337.322187988934</v>
+        <v>2328.635752711713</v>
       </c>
       <c r="O35" t="n">
-        <v>2907.782564894029</v>
+        <v>2899.096129616809</v>
       </c>
       <c r="P35" t="n">
-        <v>3356.982915607723</v>
+        <v>3348.296480330503</v>
       </c>
       <c r="Q35" t="n">
-        <v>3617.091911823978</v>
+        <v>3608.405476546758</v>
       </c>
       <c r="R35" t="n">
         <v>3617.091911823978</v>
       </c>
       <c r="S35" t="n">
-        <v>3549.567302671597</v>
+        <v>3549.567302671598</v>
       </c>
       <c r="T35" t="n">
-        <v>3420.860384692296</v>
+        <v>3420.860384692297</v>
       </c>
       <c r="U35" t="n">
-        <v>3252.655286784185</v>
+        <v>3252.655286784186</v>
       </c>
       <c r="V35" t="n">
-        <v>3007.067717510447</v>
+        <v>3007.067717510448</v>
       </c>
       <c r="W35" t="n">
         <v>2739.774380310167</v>
       </c>
       <c r="X35" t="n">
-        <v>2451.78394011892</v>
+        <v>2451.783940118919</v>
       </c>
       <c r="Y35" t="n">
         <v>2147.119926212941</v>
@@ -7017,22 +7017,22 @@
         <v>197.991339424029</v>
       </c>
       <c r="K36" t="n">
-        <v>539.3671932264583</v>
+        <v>277.5466085840055</v>
       </c>
       <c r="L36" t="n">
-        <v>1059.793553347626</v>
+        <v>797.9729687051733</v>
       </c>
       <c r="M36" t="n">
-        <v>1719.085790323754</v>
+        <v>996.2171925688014</v>
       </c>
       <c r="N36" t="n">
-        <v>2312.769233000159</v>
+        <v>1399.590881104168</v>
       </c>
       <c r="O36" t="n">
-        <v>2489.885187813665</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.703290126629</v>
+        <v>2404.726775268138</v>
       </c>
       <c r="Q36" t="n">
         <v>2644.884742563894</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>532.7143973798275</v>
+        <v>532.7143973798285</v>
       </c>
       <c r="C37" t="n">
-        <v>449.2535325217546</v>
+        <v>449.2535325217544</v>
       </c>
       <c r="D37" t="n">
         <v>384.6122111792516</v>
@@ -7084,16 +7084,16 @@
         <v>260.7598062386139</v>
       </c>
       <c r="G37" t="n">
-        <v>177.6915678518461</v>
+        <v>177.6915678518462</v>
       </c>
       <c r="H37" t="n">
-        <v>109.4749355483496</v>
+        <v>109.4749355483497</v>
       </c>
       <c r="I37" t="n">
         <v>72.34183823647956</v>
       </c>
       <c r="J37" t="n">
-        <v>142.9827718016397</v>
+        <v>142.9827718016396</v>
       </c>
       <c r="K37" t="n">
         <v>335.01171494236</v>
@@ -7102,10 +7102,10 @@
         <v>612.8411054294154</v>
       </c>
       <c r="M37" t="n">
-        <v>911.6084096908393</v>
+        <v>911.6084096908397</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.698278674372</v>
+        <v>1210.698278674373</v>
       </c>
       <c r="O37" t="n">
         <v>1477.335065473174</v>
@@ -7117,7 +7117,7 @@
         <v>1786.445910150577</v>
       </c>
       <c r="R37" t="n">
-        <v>1744.288950198784</v>
+        <v>1744.288950198785</v>
       </c>
       <c r="S37" t="n">
         <v>1623.42693030781</v>
@@ -7126,19 +7126,19 @@
         <v>1483.543466395167</v>
       </c>
       <c r="U37" t="n">
-        <v>1279.870060145298</v>
+        <v>1279.870060145299</v>
       </c>
       <c r="V37" t="n">
-        <v>1110.660890009244</v>
+        <v>1110.660890009245</v>
       </c>
       <c r="W37" t="n">
-        <v>906.7190380421163</v>
+        <v>906.7190380421172</v>
       </c>
       <c r="X37" t="n">
-        <v>764.2048052139319</v>
+        <v>764.2048052139328</v>
       </c>
       <c r="Y37" t="n">
-        <v>628.8875441402342</v>
+        <v>628.8875441402353</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1845.995404218653</v>
+        <v>1845.995404218651</v>
       </c>
       <c r="C38" t="n">
-        <v>1562.508205348074</v>
+        <v>1562.508205348073</v>
       </c>
       <c r="D38" t="n">
-        <v>1289.717824811156</v>
+        <v>1289.717824811155</v>
       </c>
       <c r="E38" t="n">
-        <v>989.4048902827451</v>
+        <v>989.404890282744</v>
       </c>
       <c r="F38" t="n">
-        <v>663.8943035629704</v>
+        <v>663.8943035629691</v>
       </c>
       <c r="G38" t="n">
-        <v>332.4229308305453</v>
+        <v>332.4229308305441</v>
       </c>
       <c r="H38" t="n">
         <v>101.1200814804511</v>
       </c>
       <c r="I38" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J38" t="n">
-        <v>272.7183553404392</v>
+        <v>105.3127063200861</v>
       </c>
       <c r="K38" t="n">
-        <v>693.7756164733491</v>
+        <v>526.3699674529961</v>
       </c>
       <c r="L38" t="n">
-        <v>1268.411008880852</v>
+        <v>1101.005359860498</v>
       </c>
       <c r="M38" t="n">
-        <v>1676.653858434883</v>
+        <v>1757.004499773366</v>
       </c>
       <c r="N38" t="n">
-        <v>2328.635752711714</v>
+        <v>2408.986394050197</v>
       </c>
       <c r="O38" t="n">
-        <v>2899.096129616809</v>
+        <v>2979.446770955293</v>
       </c>
       <c r="P38" t="n">
-        <v>3348.296480330504</v>
+        <v>3428.647121668987</v>
       </c>
       <c r="Q38" t="n">
-        <v>3608.405476546758</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="R38" t="n">
-        <v>3617.091911823979</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="S38" t="n">
         <v>3549.567302671598</v>
@@ -7205,19 +7205,19 @@
         <v>3420.860384692297</v>
       </c>
       <c r="U38" t="n">
-        <v>3252.655286784187</v>
+        <v>3252.655286784186</v>
       </c>
       <c r="V38" t="n">
-        <v>3007.067717510449</v>
+        <v>3007.067717510447</v>
       </c>
       <c r="W38" t="n">
-        <v>2739.774380310168</v>
+        <v>2739.774380310166</v>
       </c>
       <c r="X38" t="n">
-        <v>2451.78394011892</v>
+        <v>2451.783940118919</v>
       </c>
       <c r="Y38" t="n">
-        <v>2147.119926212942</v>
+        <v>2147.11992621294</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.6475767884066</v>
       </c>
       <c r="I39" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J39" t="n">
         <v>197.991339424029</v>
@@ -7257,13 +7257,13 @@
         <v>539.3671932264583</v>
       </c>
       <c r="L39" t="n">
-        <v>898.8215992334373</v>
+        <v>1059.793553347626</v>
       </c>
       <c r="M39" t="n">
-        <v>1097.065823097065</v>
+        <v>1258.037777211254</v>
       </c>
       <c r="N39" t="n">
-        <v>1789.51457718813</v>
+        <v>1475.937580702201</v>
       </c>
       <c r="O39" t="n">
         <v>1966.630532001637</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.7143973798286</v>
+        <v>532.7143973798285</v>
       </c>
       <c r="C40" t="n">
-        <v>449.2535325217546</v>
+        <v>449.2535325217544</v>
       </c>
       <c r="D40" t="n">
-        <v>384.6122111792517</v>
+        <v>384.6122111792516</v>
       </c>
       <c r="E40" t="n">
-        <v>322.1744356666915</v>
+        <v>322.1744356666914</v>
       </c>
       <c r="F40" t="n">
         <v>260.7598062386139</v>
       </c>
       <c r="G40" t="n">
-        <v>177.6915678518461</v>
+        <v>177.6915678518462</v>
       </c>
       <c r="H40" t="n">
         <v>109.4749355483496</v>
       </c>
       <c r="I40" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J40" t="n">
-        <v>142.9827718016396</v>
+        <v>142.9827718016395</v>
       </c>
       <c r="K40" t="n">
-        <v>335.01171494236</v>
+        <v>335.0117149423602</v>
       </c>
       <c r="L40" t="n">
-        <v>612.8411054294156</v>
+        <v>612.8411054294153</v>
       </c>
       <c r="M40" t="n">
-        <v>911.6084096908395</v>
+        <v>911.608409690839</v>
       </c>
       <c r="N40" t="n">
-        <v>1210.698278674373</v>
+        <v>1210.698278674372</v>
       </c>
       <c r="O40" t="n">
-        <v>1477.335065473174</v>
+        <v>1477.335065473173</v>
       </c>
       <c r="P40" t="n">
-        <v>1694.059139721419</v>
+        <v>1694.059139721418</v>
       </c>
       <c r="Q40" t="n">
         <v>1786.445910150577</v>
@@ -7363,19 +7363,19 @@
         <v>1483.543466395167</v>
       </c>
       <c r="U40" t="n">
-        <v>1279.870060145299</v>
+        <v>1279.870060145298</v>
       </c>
       <c r="V40" t="n">
-        <v>1110.660890009245</v>
+        <v>1110.660890009244</v>
       </c>
       <c r="W40" t="n">
-        <v>906.7190380421169</v>
+        <v>906.7190380421167</v>
       </c>
       <c r="X40" t="n">
-        <v>764.2048052139326</v>
+        <v>764.2048052139323</v>
       </c>
       <c r="Y40" t="n">
-        <v>628.8875441402354</v>
+        <v>628.8875441402353</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1854.441568794086</v>
+        <v>2272.818447342526</v>
       </c>
       <c r="C41" t="n">
-        <v>1509.979649477238</v>
+        <v>1928.356528025679</v>
       </c>
       <c r="D41" t="n">
-        <v>1509.979649477238</v>
+        <v>1594.591427042494</v>
       </c>
       <c r="E41" t="n">
-        <v>1148.691994502559</v>
+        <v>1233.303772067815</v>
       </c>
       <c r="F41" t="n">
-        <v>762.2066873365171</v>
+        <v>846.8184649017726</v>
       </c>
       <c r="G41" t="n">
-        <v>454.3723717230797</v>
+        <v>454.3723717230799</v>
       </c>
       <c r="H41" t="n">
-        <v>162.0948019267187</v>
+        <v>162.0948019267188</v>
       </c>
       <c r="I41" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J41" t="n">
-        <v>272.7183553404392</v>
+        <v>243.8403410121285</v>
       </c>
       <c r="K41" t="n">
-        <v>693.7756164733491</v>
+        <v>664.8976021450385</v>
       </c>
       <c r="L41" t="n">
-        <v>1268.411008880852</v>
+        <v>1239.532994552541</v>
       </c>
       <c r="M41" t="n">
-        <v>1676.653858434883</v>
+        <v>1895.532134465409</v>
       </c>
       <c r="N41" t="n">
-        <v>2328.635752711714</v>
+        <v>2547.51402874224</v>
       </c>
       <c r="O41" t="n">
-        <v>2899.096129616809</v>
+        <v>3117.974405647335</v>
       </c>
       <c r="P41" t="n">
-        <v>3348.296480330504</v>
+        <v>3567.174756361029</v>
       </c>
       <c r="Q41" t="n">
-        <v>3608.405476546758</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="R41" t="n">
-        <v>3617.091911823979</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="S41" t="n">
-        <v>3488.592582225331</v>
+        <v>3488.59258222533</v>
       </c>
       <c r="T41" t="n">
-        <v>3488.592582225331</v>
+        <v>3298.910943799761</v>
       </c>
       <c r="U41" t="n">
-        <v>3259.412763870952</v>
+        <v>3290.445140140603</v>
       </c>
       <c r="V41" t="n">
-        <v>3259.412763870952</v>
+        <v>2983.882850420597</v>
       </c>
       <c r="W41" t="n">
-        <v>2931.144706224403</v>
+        <v>2983.882850420597</v>
       </c>
       <c r="X41" t="n">
-        <v>2582.179545586889</v>
+        <v>2634.917689783083</v>
       </c>
       <c r="Y41" t="n">
-        <v>2216.540811234642</v>
+        <v>2634.917689783083</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.6475767884066</v>
       </c>
       <c r="I42" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J42" t="n">
-        <v>73.16121443702426</v>
+        <v>197.991339424029</v>
       </c>
       <c r="K42" t="n">
-        <v>414.5370682394536</v>
+        <v>539.3671932264583</v>
       </c>
       <c r="L42" t="n">
-        <v>934.9634283606214</v>
+        <v>983.4468537495931</v>
       </c>
       <c r="M42" t="n">
-        <v>1594.255665336749</v>
+        <v>1181.691077613221</v>
       </c>
       <c r="N42" t="n">
-        <v>1997.491092046621</v>
+        <v>1399.590881104168</v>
       </c>
       <c r="O42" t="n">
-        <v>2174.607046860127</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.703290126629</v>
+        <v>2404.726775268138</v>
       </c>
       <c r="Q42" t="n">
         <v>2644.884742563894</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.8675436165605</v>
+        <v>285.6517633020825</v>
       </c>
       <c r="C43" t="n">
-        <v>541.8675436165605</v>
+        <v>285.6517633020825</v>
       </c>
       <c r="D43" t="n">
-        <v>416.2515018277901</v>
+        <v>285.6517633020825</v>
       </c>
       <c r="E43" t="n">
-        <v>292.8390058689623</v>
+        <v>285.6517633020825</v>
       </c>
       <c r="F43" t="n">
-        <v>170.4496559946172</v>
+        <v>285.6517633020825</v>
       </c>
       <c r="G43" t="n">
-        <v>170.4496559946172</v>
+        <v>141.608804469047</v>
       </c>
       <c r="H43" t="n">
-        <v>170.4496559946172</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="I43" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J43" t="n">
-        <v>83.22144829225267</v>
+        <v>83.22144829225252</v>
       </c>
       <c r="K43" t="n">
-        <v>215.4890679235862</v>
+        <v>215.4890679235858</v>
       </c>
       <c r="L43" t="n">
-        <v>433.5571349012548</v>
+        <v>433.5571349012542</v>
       </c>
       <c r="M43" t="n">
-        <v>672.5631156532918</v>
+        <v>672.5631156532911</v>
       </c>
       <c r="N43" t="n">
-        <v>911.8916611274381</v>
+        <v>911.8916611274371</v>
       </c>
       <c r="O43" t="n">
-        <v>1118.767124416853</v>
+        <v>1118.767124416851</v>
       </c>
       <c r="P43" t="n">
-        <v>1275.729875155711</v>
+        <v>1275.72987515571</v>
       </c>
       <c r="Q43" t="n">
-        <v>1308.355322075482</v>
+        <v>1308.355322075481</v>
       </c>
       <c r="R43" t="n">
-        <v>1308.355322075482</v>
+        <v>1308.355322075481</v>
       </c>
       <c r="S43" t="n">
-        <v>1308.355322075482</v>
+        <v>1308.355322075481</v>
       </c>
       <c r="T43" t="n">
-        <v>1308.355322075482</v>
+        <v>1107.49713771657</v>
       </c>
       <c r="U43" t="n">
-        <v>1308.355322075482</v>
+        <v>1107.49713771657</v>
       </c>
       <c r="V43" t="n">
-        <v>1078.171431493161</v>
+        <v>1107.49713771657</v>
       </c>
       <c r="W43" t="n">
-        <v>813.2548590797652</v>
+        <v>842.5805653031742</v>
       </c>
       <c r="X43" t="n">
-        <v>699.0154108232349</v>
+        <v>639.091612028722</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.0154108232349</v>
+        <v>442.799630508757</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2272.818447342525</v>
+        <v>2183.065483652287</v>
       </c>
       <c r="C44" t="n">
-        <v>1928.356528025678</v>
+        <v>1838.603564335441</v>
       </c>
       <c r="D44" t="n">
-        <v>1594.591427042493</v>
+        <v>1504.838463352255</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.303772067814</v>
+        <v>1143.550808377576</v>
       </c>
       <c r="F44" t="n">
-        <v>846.8184649017722</v>
+        <v>757.065501211534</v>
       </c>
       <c r="G44" t="n">
-        <v>454.3723717230797</v>
+        <v>364.6194080328407</v>
       </c>
       <c r="H44" t="n">
-        <v>162.0948019267187</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="I44" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J44" t="n">
         <v>105.3127063200861</v>
@@ -7667,31 +7667,31 @@
         <v>3428.647121668987</v>
       </c>
       <c r="Q44" t="n">
-        <v>3617.091911823979</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="R44" t="n">
-        <v>3617.091911823979</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="S44" t="n">
-        <v>3488.592582225331</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="T44" t="n">
-        <v>3488.592582225331</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="U44" t="n">
-        <v>3488.592582225331</v>
+        <v>3617.091911823978</v>
       </c>
       <c r="V44" t="n">
-        <v>3328.824481781877</v>
+        <v>3588.036678729154</v>
       </c>
       <c r="W44" t="n">
-        <v>3000.556424135328</v>
+        <v>3259.768621082605</v>
       </c>
       <c r="X44" t="n">
-        <v>3000.556424135328</v>
+        <v>2910.80346044509</v>
       </c>
       <c r="Y44" t="n">
-        <v>2634.917689783082</v>
+        <v>2545.164726092844</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>115.6475767884066</v>
       </c>
       <c r="I45" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J45" t="n">
-        <v>73.16121443702426</v>
+        <v>197.991339424029</v>
       </c>
       <c r="K45" t="n">
-        <v>414.5370682394536</v>
+        <v>539.3671932264583</v>
       </c>
       <c r="L45" t="n">
-        <v>567.8314865101968</v>
+        <v>898.8215992334373</v>
       </c>
       <c r="M45" t="n">
-        <v>1227.123723486325</v>
+        <v>1097.065823097065</v>
       </c>
       <c r="N45" t="n">
-        <v>1919.57247757739</v>
+        <v>1789.51457718813</v>
       </c>
       <c r="O45" t="n">
-        <v>2281.908672955175</v>
+        <v>1966.630532001637</v>
       </c>
       <c r="P45" t="n">
         <v>2404.726775268138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.7774235408214</v>
+        <v>144.2595947502644</v>
       </c>
       <c r="C46" t="n">
-        <v>72.34183823647957</v>
+        <v>144.2595947502644</v>
       </c>
       <c r="D46" t="n">
-        <v>72.34183823647957</v>
+        <v>144.2595947502644</v>
       </c>
       <c r="E46" t="n">
-        <v>72.34183823647957</v>
+        <v>144.2595947502644</v>
       </c>
       <c r="F46" t="n">
-        <v>72.34183823647957</v>
+        <v>144.2595947502644</v>
       </c>
       <c r="G46" t="n">
-        <v>72.34183823647957</v>
+        <v>144.2595947502644</v>
       </c>
       <c r="H46" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="I46" t="n">
-        <v>72.34183823647957</v>
+        <v>72.34183823647956</v>
       </c>
       <c r="J46" t="n">
-        <v>83.22144829225269</v>
+        <v>83.22144829225252</v>
       </c>
       <c r="K46" t="n">
-        <v>215.4890679235862</v>
+        <v>215.4890679235858</v>
       </c>
       <c r="L46" t="n">
-        <v>433.5571349012548</v>
+        <v>433.5571349012542</v>
       </c>
       <c r="M46" t="n">
-        <v>672.5631156532918</v>
+        <v>672.5631156532911</v>
       </c>
       <c r="N46" t="n">
-        <v>911.8916611274382</v>
+        <v>911.8916611274373</v>
       </c>
       <c r="O46" t="n">
-        <v>1118.767124416853</v>
+        <v>1118.767124416851</v>
       </c>
       <c r="P46" t="n">
-        <v>1275.729875155711</v>
+        <v>1275.72987515571</v>
       </c>
       <c r="Q46" t="n">
-        <v>1308.355322075482</v>
+        <v>1308.355322075481</v>
       </c>
       <c r="R46" t="n">
-        <v>1308.355322075482</v>
+        <v>1308.355322075481</v>
       </c>
       <c r="S46" t="n">
-        <v>1126.51858173824</v>
+        <v>1308.355322075481</v>
       </c>
       <c r="T46" t="n">
-        <v>925.6603973793292</v>
+        <v>1107.49713771657</v>
       </c>
       <c r="U46" t="n">
-        <v>661.0122706831934</v>
+        <v>842.8490110204339</v>
       </c>
       <c r="V46" t="n">
-        <v>430.8283801008719</v>
+        <v>612.6651204381121</v>
       </c>
       <c r="W46" t="n">
-        <v>430.8283801008719</v>
+        <v>347.7485480247166</v>
       </c>
       <c r="X46" t="n">
-        <v>227.3394268264198</v>
+        <v>144.2595947502644</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.7774235408214</v>
+        <v>144.2595947502644</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N2" t="n">
         <v>257.0030888569071</v>
@@ -7994,7 +7994,7 @@
         <v>257.6882366820029</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O3" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.4570508509713</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N5" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O5" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>165.4314642346751</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>169.0715212093943</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8462,13 +8462,13 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P8" t="n">
-        <v>257.7082725202194</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N9" t="n">
         <v>158.9317373436494</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>130.5413021124051</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>131.1527266816387</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>267.771357556828</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>316.7444408948778</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.1527266816382</v>
+        <v>139.9269037293361</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>56.94224282528504</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>38.09469090745688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>316.7444408948779</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>251.7573256405961</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>356.1846604337173</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>56.94224282528504</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>293.7224669216076</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>290.7933315300983</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>187.0880452616436</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>139.9269037293356</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>56.94224282528504</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>40.10506352066396</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>316.7444408948778</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>208.0288313901895</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>71.53982902114242</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>56.94224282528504</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>379.5794335206642</v>
+        <v>316.7444408948778</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>316.7444408948778</v>
       </c>
       <c r="P27" t="n">
-        <v>132.8428612179912</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>57.6940698209786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>57.8106179569846</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>61.00011674472063</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>259.0504446944061</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>345.2731276198813</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>199.2546543424921</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>56.94224282528504</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5794335206643</v>
+        <v>187.3473586307269</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>199.2546543424926</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>139.9269037293356</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>56.94224282528506</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>208.2424118547836</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>316.7444408948783</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>139.9269037293357</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>199.2546543424926</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>56.94224282528504</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>293.7224669216076</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>187.2077002211359</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>139.9269037293361</v>
+        <v>139.9269037293356</v>
       </c>
       <c r="R44" t="n">
         <v>56.94224282528504</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>208.2424118547836</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>187.0911520851295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>77.84825113320043</v>
       </c>
       <c r="C28" t="n">
-        <v>25.37427446363705</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>78.16531292111786</v>
       </c>
       <c r="F28" t="n">
         <v>77.15239829747993</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>98.58947116658332</v>
       </c>
       <c r="H28" t="n">
-        <v>83.88638114414481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>53.1136815024346</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>58.08730551595771</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.3160036266435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>98.97817137317647</v>
+        <v>98.97817137317652</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>80.34682329276104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>78.16531292111786</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>77.15239829747993</v>
       </c>
       <c r="G31" t="n">
-        <v>98.58947116658327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>55.20003314980469</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>183.8689935983766</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>8.406102896201922</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.086351647369383</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>98.97817137317652</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>80.34682329276104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>78.16531292111786</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>77.15239829747993</v>
       </c>
       <c r="G34" t="n">
-        <v>98.58947116658334</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.88638114414479</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>53.1136815024346</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.05088309696792</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.3160036266435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>330.4274499733533</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>83.76565978960257</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,22 +25679,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>187.7848220413128</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>218.5068745482684</v>
       </c>
       <c r="V41" t="n">
-        <v>303.4966668228053</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>324.9853770700835</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>361.9823470087241</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9912294512982</v>
+        <v>142.9912294512984</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>124.3598813708829</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>122.1783709992397</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>121.1654563756017</v>
       </c>
       <c r="G43" t="n">
-        <v>142.602529244705</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>127.8994392222665</v>
+        <v>59.32514265202484</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.12673958055643</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.1003635940794</v>
+        <v>102.1003635940795</v>
       </c>
       <c r="S43" t="n">
-        <v>180.0183729338697</v>
+        <v>180.0183729338699</v>
       </c>
       <c r="T43" t="n">
-        <v>198.8496025153215</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>262.0016454291745</v>
+        <v>262.0016454291746</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>227.8820516764985</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>88.35700996774251</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3290617047651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>88.85543405333686</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>127.2143363026616</v>
       </c>
       <c r="T44" t="n">
-        <v>187.7848220413128</v>
+        <v>187.784822041313</v>
       </c>
       <c r="U44" t="n">
-        <v>226.8880201708349</v>
+        <v>226.888020170835</v>
       </c>
       <c r="V44" t="n">
-        <v>145.3262473837856</v>
+        <v>274.7319860589294</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>345.4755090311394</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5763885346076</v>
+        <v>155.5763885346078</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>142.9912294512984</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3598813708827</v>
+        <v>124.3598813708829</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1783709992395</v>
+        <v>122.1783709992397</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1654563756016</v>
+        <v>121.1654563756017</v>
       </c>
       <c r="G46" t="n">
-        <v>142.602529244705</v>
+        <v>142.6025292447052</v>
       </c>
       <c r="H46" t="n">
-        <v>127.8994392222665</v>
+        <v>56.70086027361972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.12673958055626</v>
+        <v>97.12673958055643</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.1003635940794</v>
+        <v>102.1003635940795</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>180.0183729338699</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2674066892613</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.8726784520227</v>
+        <v>194.3290617047653</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755615.3216251842</v>
+        <v>755615.3216251843</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771915.5153809707</v>
+        <v>771915.5153809708</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771915.5153809707</v>
+        <v>771915.5153809708</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771915.5153809707</v>
+        <v>771915.5153809708</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681292.4592549731</v>
+        <v>681292.459254973</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681292.4592549733</v>
+        <v>681292.4592549729</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="H2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778549</v>
-      </c>
-      <c r="E2" t="n">
-        <v>738937.5928778548</v>
-      </c>
-      <c r="F2" t="n">
-        <v>738937.5928778548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>738937.5928778548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="I2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>730516.9897147131</v>
+      </c>
+      <c r="K2" t="n">
+        <v>730516.9897147132</v>
+      </c>
+      <c r="L2" t="n">
+        <v>730516.9897147133</v>
+      </c>
+      <c r="M2" t="n">
         <v>738937.5928778547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>730516.9897147133</v>
-      </c>
-      <c r="K2" t="n">
-        <v>730516.9897147128</v>
-      </c>
-      <c r="L2" t="n">
-        <v>730516.9897147134</v>
-      </c>
-      <c r="M2" t="n">
-        <v>738937.5928778549</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="O2" t="n">
-        <v>642983.7687444468</v>
+        <v>642983.7687444461</v>
       </c>
       <c r="P2" t="n">
-        <v>642983.7687444467</v>
+        <v>642983.7687444461</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78370.40548085884</v>
+        <v>78370.40548085886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6322.941186917125</v>
+        <v>6322.941186917024</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>148659.3807175437</v>
       </c>
       <c r="K4" t="n">
-        <v>148659.3807175438</v>
+        <v>148659.3807175437</v>
       </c>
       <c r="L4" t="n">
         <v>148659.3807175437</v>
@@ -26454,10 +26454,10 @@
         <v>160173.7060561572</v>
       </c>
       <c r="O4" t="n">
-        <v>99172.14048202509</v>
+        <v>99172.14048202493</v>
       </c>
       <c r="P4" t="n">
-        <v>99172.14048202509</v>
+        <v>99172.14048202493</v>
       </c>
     </row>
     <row r="5">
@@ -26506,10 +26506,10 @@
         <v>75788.99231712351</v>
       </c>
       <c r="O5" t="n">
-        <v>70714.16938165823</v>
+        <v>70714.1693816582</v>
       </c>
       <c r="P5" t="n">
-        <v>70714.16938165823</v>
+        <v>70714.1693816582</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299629.6522680619</v>
+        <v>299629.6522680621</v>
       </c>
       <c r="C6" t="n">
+        <v>308875.7043033749</v>
+      </c>
+      <c r="D6" t="n">
         <v>308875.7043033748</v>
       </c>
-      <c r="D6" t="n">
-        <v>308875.7043033749</v>
-      </c>
       <c r="E6" t="n">
-        <v>-331194.8484251797</v>
+        <v>-331194.8484251796</v>
       </c>
       <c r="F6" t="n">
+        <v>502974.894504574</v>
+      </c>
+      <c r="G6" t="n">
+        <v>502974.894504574</v>
+      </c>
+      <c r="H6" t="n">
         <v>502974.8945045742</v>
       </c>
-      <c r="G6" t="n">
-        <v>502974.8945045742</v>
-      </c>
-      <c r="H6" t="n">
-        <v>502974.8945045745</v>
-      </c>
       <c r="I6" t="n">
-        <v>502974.894504574</v>
+        <v>502974.8945045744</v>
       </c>
       <c r="J6" t="n">
-        <v>425230.1497291091</v>
+        <v>425206.7591647668</v>
       </c>
       <c r="K6" t="n">
-        <v>503600.5552099674</v>
+        <v>503577.1646456257</v>
       </c>
       <c r="L6" t="n">
-        <v>503600.555209968</v>
+        <v>503577.1646456259</v>
       </c>
       <c r="M6" t="n">
-        <v>287170.9379582639</v>
+        <v>287170.9379582637</v>
       </c>
       <c r="N6" t="n">
         <v>502974.894504574</v>
       </c>
       <c r="O6" t="n">
-        <v>466774.5176938464</v>
+        <v>466507.9792934753</v>
       </c>
       <c r="P6" t="n">
-        <v>473097.4588807634</v>
+        <v>472830.9204803923</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>84.62056488913457</v>
+      </c>
+      <c r="F2" t="n">
         <v>84.62056488913456</v>
       </c>
-      <c r="F2" t="n">
-        <v>84.62056488913454</v>
-      </c>
       <c r="G2" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="H2" t="n">
         <v>84.62056488913454</v>
       </c>
       <c r="I2" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="J2" t="n">
         <v>68.26864972545131</v>
       </c>
       <c r="K2" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="L2" t="n">
         <v>68.26864972545131</v>
@@ -26722,10 +26722,10 @@
         <v>84.62056488913456</v>
       </c>
       <c r="O2" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="P2" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>628.2215131988253</v>
       </c>
       <c r="H3" t="n">
-        <v>628.2215131988254</v>
+        <v>628.2215131988253</v>
       </c>
       <c r="I3" t="n">
         <v>628.2215131988253</v>
@@ -26771,7 +26771,7 @@
         <v>628.2215131988253</v>
       </c>
       <c r="N3" t="n">
-        <v>628.2215131988253</v>
+        <v>628.2215131988252</v>
       </c>
       <c r="O3" t="n">
         <v>628.2215131988253</v>
@@ -26796,13 +26796,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
-        <v>904.2729779559945</v>
+        <v>904.2729779559946</v>
       </c>
       <c r="F4" t="n">
-        <v>904.2729779559945</v>
+        <v>904.2729779559946</v>
       </c>
       <c r="G4" t="n">
-        <v>904.2729779559945</v>
+        <v>904.2729779559946</v>
       </c>
       <c r="H4" t="n">
         <v>904.2729779559945</v>
@@ -26814,22 +26814,22 @@
         <v>967.4761132516162</v>
       </c>
       <c r="K4" t="n">
-        <v>967.4761132516161</v>
+        <v>967.4761132516162</v>
       </c>
       <c r="L4" t="n">
-        <v>967.4761132516161</v>
+        <v>967.4761132516162</v>
       </c>
       <c r="M4" t="n">
         <v>904.2729779559945</v>
       </c>
       <c r="N4" t="n">
-        <v>904.2729779559946</v>
+        <v>904.2729779559945</v>
       </c>
       <c r="O4" t="n">
-        <v>904.2729779559946</v>
+        <v>904.2729779559945</v>
       </c>
       <c r="P4" t="n">
-        <v>904.2729779559946</v>
+        <v>904.2729779559945</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.26864972545131</v>
+        <v>68.26864972545134</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.35191516368324</v>
+        <v>16.35191516368323</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.903676483646407</v>
+        <v>7.903676483646279</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>876.6829526956784</v>
+        <v>876.6829526956785</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.79316055593782</v>
+        <v>90.79316055593779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.26864972545131</v>
+        <v>68.26864972545134</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>876.6829526956784</v>
+        <v>876.6829526956785</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,10 +27436,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>300.1622332098187</v>
+        <v>325.3909527900058</v>
       </c>
       <c r="W2" t="n">
-        <v>341.4684210338143</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>149.1537960652871</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S3" t="n">
         <v>144.0931458435217</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>160.1046615565344</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E4" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.71328389118497</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>337.113496435638</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>329.5191316792017</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>145.1184737279996</v>
       </c>
       <c r="D6" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,13 +27710,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>209.2458842263967</v>
       </c>
       <c r="W6" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E7" t="n">
-        <v>123.9852032860598</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27825,16 +27825,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>200.3555641679654</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U7" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>122.2790926808335</v>
@@ -27910,16 +27910,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>325.6297474776949</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.8766329759245</v>
       </c>
     </row>
     <row r="9">
@@ -27941,19 +27941,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>113.788814240182</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>72.56780889232699</v>
       </c>
       <c r="S9" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>128.8881543928095</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,10 +28059,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5678386764629</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="C11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="D11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="E11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="F11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="G11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="H11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="I11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="T11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="U11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="V11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="W11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="X11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="C13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="D13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="E13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="F13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="G13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="H13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="I13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="J13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="K13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="L13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="M13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="N13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="O13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="P13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="R13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="S13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="T13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="U13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="V13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="W13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="X13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913457</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="C14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="D14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="E14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="F14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="G14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="H14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="I14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="T14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="U14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="V14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="W14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="X14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="C16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="D16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="E16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="F16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="G16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="H16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="I16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="J16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="K16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="L16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="M16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="N16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="O16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="P16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="R16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="S16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="T16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="U16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="V16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="W16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="X16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="C17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="D17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="E17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="F17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="G17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="H17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="I17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="T17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="U17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="V17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="W17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="X17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="C19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="D19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="E19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="F19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="G19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="H19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="I19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="J19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="K19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="L19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="M19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="N19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="O19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="P19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="R19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="S19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="T19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="U19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="V19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="W19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="X19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.62056488913454</v>
+        <v>84.62056488913456</v>
       </c>
     </row>
     <row r="20">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="C23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="D23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="E23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="F23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="G23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="H23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="I23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="T23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="U23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="V23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="W23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="X23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="C25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="D25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="E25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="F25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="G25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="H25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="I25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="J25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="K25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="L25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="M25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="N25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="O25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="P25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="R25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="S25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="T25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="U25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="V25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="W25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="X25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.62056488913456</v>
+        <v>84.62056488913454</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="C29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="D29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="E29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="F29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="G29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="H29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="I29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="T29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="U29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="V29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="W29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="X29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="Y29" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="C31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="D31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="E31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="F31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="G31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="H31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="I31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="J31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="K31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="L31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="M31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="N31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="O31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="P31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="R31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="S31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="T31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="U31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="V31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="W31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="X31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.26864972545137</v>
+        <v>68.26864972545131</v>
       </c>
     </row>
     <row r="32">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="C41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="D41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="E41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="F41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="G41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="H41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="I41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="T41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="U41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="V41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="W41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="X41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="C43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="D43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="E43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="F43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="G43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="H43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="I43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="J43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="K43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="L43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="M43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="N43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="O43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="P43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="R43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="S43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="T43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="U43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="V43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="W43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="X43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="C44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="D44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="E44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="F44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="G44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="H44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="I44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="T44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="U44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="V44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="W44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="X44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="C46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="D46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="E46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="F46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="G46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="H46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="I46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="J46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="K46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="L46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="M46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="N46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="O46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="P46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="R46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="S46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="T46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="U46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="V46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="W46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="X46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.25559164732965</v>
+        <v>24.25559164732949</v>
       </c>
     </row>
   </sheetData>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.525513620899799</v>
+        <v>2.525513620899798</v>
       </c>
       <c r="H20" t="n">
-        <v>25.86441637004007</v>
+        <v>25.86441637004006</v>
       </c>
       <c r="I20" t="n">
-        <v>97.36486386973958</v>
+        <v>97.36486386973957</v>
       </c>
       <c r="J20" t="n">
-        <v>214.3498116818445</v>
+        <v>214.3498116818444</v>
       </c>
       <c r="K20" t="n">
         <v>321.254803254533</v>
       </c>
       <c r="L20" t="n">
-        <v>398.5449907301453</v>
+        <v>398.5449907301452</v>
       </c>
       <c r="M20" t="n">
-        <v>443.4580935858221</v>
+        <v>443.458093585822</v>
       </c>
       <c r="N20" t="n">
-        <v>450.6337091612037</v>
+        <v>450.6337091612036</v>
       </c>
       <c r="O20" t="n">
-        <v>425.5206330933813</v>
+        <v>425.5206330933812</v>
       </c>
       <c r="P20" t="n">
         <v>363.1720155774174</v>
       </c>
       <c r="Q20" t="n">
-        <v>272.7270590289433</v>
+        <v>272.7270590289432</v>
       </c>
       <c r="R20" t="n">
         <v>158.6432949888471</v>
       </c>
       <c r="S20" t="n">
-        <v>57.55014163625422</v>
+        <v>57.55014163625421</v>
       </c>
       <c r="T20" t="n">
         <v>11.05543587548887</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2020410896719839</v>
+        <v>0.2020410896719838</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>13.05041294399824</v>
       </c>
       <c r="I21" t="n">
-        <v>46.52395168500736</v>
+        <v>46.52395168500735</v>
       </c>
       <c r="J21" t="n">
         <v>127.6652793944896</v>
@@ -32561,7 +32561,7 @@
         <v>342.3807246933598</v>
       </c>
       <c r="N21" t="n">
-        <v>351.4425236903505</v>
+        <v>351.4425236903504</v>
       </c>
       <c r="O21" t="n">
         <v>321.5012493065724</v>
@@ -32573,16 +32573,16 @@
         <v>172.4882916994209</v>
       </c>
       <c r="R21" t="n">
-        <v>83.89720510228845</v>
+        <v>83.89720510228844</v>
       </c>
       <c r="S21" t="n">
         <v>25.09922743770777</v>
       </c>
       <c r="T21" t="n">
-        <v>5.446561987072833</v>
+        <v>5.446561987072832</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08889927073568288</v>
+        <v>0.08889927073568286</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,7 +32628,7 @@
         <v>34.06814369937237</v>
       </c>
       <c r="J22" t="n">
-        <v>80.09309357618466</v>
+        <v>80.09309357618464</v>
       </c>
       <c r="K22" t="n">
         <v>131.6175563718194</v>
@@ -32637,7 +32637,7 @@
         <v>168.425157817272</v>
       </c>
       <c r="M22" t="n">
-        <v>177.580713968645</v>
+        <v>177.5807139686449</v>
       </c>
       <c r="N22" t="n">
         <v>173.3582415028825</v>
@@ -32649,19 +32649,19 @@
         <v>137.0140821573306</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.86144849302264</v>
+        <v>94.86144849302261</v>
       </c>
       <c r="R22" t="n">
-        <v>50.93743613576048</v>
+        <v>50.93743613576047</v>
       </c>
       <c r="S22" t="n">
         <v>19.74263345577291</v>
       </c>
       <c r="T22" t="n">
-        <v>4.840395265630292</v>
+        <v>4.840395265630291</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06179227998676978</v>
+        <v>0.06179227998676976</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33889,28 +33889,28 @@
         <v>25.86441637004006</v>
       </c>
       <c r="I38" t="n">
-        <v>97.36486386973957</v>
+        <v>97.36486386973955</v>
       </c>
       <c r="J38" t="n">
         <v>214.3498116818444</v>
       </c>
       <c r="K38" t="n">
-        <v>321.254803254533</v>
+        <v>321.2548032545329</v>
       </c>
       <c r="L38" t="n">
         <v>398.5449907301452</v>
       </c>
       <c r="M38" t="n">
-        <v>443.458093585822</v>
+        <v>443.4580935858219</v>
       </c>
       <c r="N38" t="n">
-        <v>450.6337091612036</v>
+        <v>450.6337091612035</v>
       </c>
       <c r="O38" t="n">
         <v>425.5206330933812</v>
       </c>
       <c r="P38" t="n">
-        <v>363.1720155774174</v>
+        <v>363.1720155774173</v>
       </c>
       <c r="Q38" t="n">
         <v>272.7270590289432</v>
@@ -33919,7 +33919,7 @@
         <v>158.6432949888471</v>
       </c>
       <c r="S38" t="n">
-        <v>57.55014163625421</v>
+        <v>57.5501416362542</v>
       </c>
       <c r="T38" t="n">
         <v>11.05543587548887</v>
@@ -33968,43 +33968,43 @@
         <v>13.05041294399824</v>
       </c>
       <c r="I39" t="n">
-        <v>46.52395168500735</v>
+        <v>46.52395168500734</v>
       </c>
       <c r="J39" t="n">
         <v>127.6652793944896</v>
       </c>
       <c r="K39" t="n">
-        <v>218.200296711709</v>
+        <v>218.2002967117089</v>
       </c>
       <c r="L39" t="n">
-        <v>293.3972265179986</v>
+        <v>293.3972265179985</v>
       </c>
       <c r="M39" t="n">
-        <v>342.3807246933598</v>
+        <v>342.3807246933597</v>
       </c>
       <c r="N39" t="n">
         <v>351.4425236903504</v>
       </c>
       <c r="O39" t="n">
-        <v>321.5012493065724</v>
+        <v>321.5012493065723</v>
       </c>
       <c r="P39" t="n">
-        <v>258.033096619344</v>
+        <v>258.0330966193439</v>
       </c>
       <c r="Q39" t="n">
-        <v>172.4882916994209</v>
+        <v>172.4882916994208</v>
       </c>
       <c r="R39" t="n">
-        <v>83.89720510228844</v>
+        <v>83.89720510228842</v>
       </c>
       <c r="S39" t="n">
-        <v>25.09922743770777</v>
+        <v>25.09922743770776</v>
       </c>
       <c r="T39" t="n">
-        <v>5.446561987072832</v>
+        <v>5.446561987072831</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08889927073568286</v>
+        <v>0.08889927073568285</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,16 +34047,16 @@
         <v>10.07214163784347</v>
       </c>
       <c r="I40" t="n">
-        <v>34.06814369937237</v>
+        <v>34.06814369937236</v>
       </c>
       <c r="J40" t="n">
-        <v>80.09309357618464</v>
+        <v>80.09309357618463</v>
       </c>
       <c r="K40" t="n">
         <v>131.6175563718194</v>
       </c>
       <c r="L40" t="n">
-        <v>168.425157817272</v>
+        <v>168.4251578172719</v>
       </c>
       <c r="M40" t="n">
         <v>177.5807139686449</v>
@@ -34071,19 +34071,19 @@
         <v>137.0140821573306</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.86144849302261</v>
+        <v>94.86144849302259</v>
       </c>
       <c r="R40" t="n">
-        <v>50.93743613576047</v>
+        <v>50.93743613576046</v>
       </c>
       <c r="S40" t="n">
         <v>19.74263345577291</v>
       </c>
       <c r="T40" t="n">
-        <v>4.840395265630291</v>
+        <v>4.84039526563029</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06179227998676976</v>
+        <v>0.06179227998676975</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="N2" t="n">
         <v>27.59002526031614</v>
@@ -34714,7 +34714,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O3" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="L5" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N5" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O5" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="P6" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O6" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N8" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="L9" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4005223272319</v>
+        <v>33.30390715515816</v>
       </c>
       <c r="K11" t="n">
         <v>425.3103647807172</v>
@@ -35422,13 +35422,13 @@
         <v>658.5675699765968</v>
       </c>
       <c r="O11" t="n">
-        <v>325.9637237840996</v>
+        <v>576.2226029344398</v>
       </c>
       <c r="P11" t="n">
         <v>453.7377279936305</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.7363598143984</v>
+        <v>181.5740958361324</v>
       </c>
       <c r="R11" t="n">
         <v>8.774177047697407</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8276527278229082</v>
+        <v>126.9186880682317</v>
       </c>
       <c r="K12" t="n">
-        <v>80.35885773734998</v>
+        <v>344.8240947499286</v>
       </c>
       <c r="L12" t="n">
-        <v>422.6142042949525</v>
+        <v>525.6831920415837</v>
       </c>
       <c r="M12" t="n">
-        <v>665.9517545213414</v>
+        <v>200.2466907713414</v>
       </c>
       <c r="N12" t="n">
-        <v>699.4431859505706</v>
+        <v>220.1008116070171</v>
       </c>
       <c r="O12" t="n">
-        <v>572.7673241388575</v>
+        <v>495.6494457570057</v>
       </c>
       <c r="P12" t="n">
-        <v>124.0586892050137</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.50651761339935</v>
+        <v>242.5838053492485</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.35447834864642</v>
+        <v>71.35447834864644</v>
       </c>
       <c r="K13" t="n">
         <v>193.9686294350711</v>
@@ -35580,13 +35580,13 @@
         <v>302.1109787712456</v>
       </c>
       <c r="O13" t="n">
-        <v>269.3300876755568</v>
+        <v>269.3300876755569</v>
       </c>
       <c r="P13" t="n">
         <v>218.9132063113587</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.31997013046278</v>
+        <v>93.31997013046279</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,10 +35665,10 @@
         <v>453.7377279936305</v>
       </c>
       <c r="Q14" t="n">
-        <v>181.574095836132</v>
+        <v>190.3482728838298</v>
       </c>
       <c r="R14" t="n">
-        <v>8.774177047697407</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>344.8240947499286</v>
       </c>
       <c r="L15" t="n">
-        <v>192.9375376455813</v>
+        <v>525.6831920415837</v>
       </c>
       <c r="M15" t="n">
-        <v>665.9517545213414</v>
+        <v>516.9911316662193</v>
       </c>
       <c r="N15" t="n">
         <v>220.1008116070171</v>
       </c>
       <c r="O15" t="n">
-        <v>572.7673241388575</v>
+        <v>178.905004862128</v>
       </c>
       <c r="P15" t="n">
         <v>442.5214578449509</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.50651761339935</v>
+        <v>242.5838053492485</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.35447834864641</v>
+        <v>71.35447834864642</v>
       </c>
       <c r="K16" t="n">
         <v>193.9686294350711</v>
@@ -35820,10 +35820,10 @@
         <v>269.3300876755568</v>
       </c>
       <c r="P16" t="n">
-        <v>218.9132063113586</v>
+        <v>218.9132063113587</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.31997013046276</v>
+        <v>93.31997013046278</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>33.30390715515816</v>
       </c>
       <c r="K17" t="n">
-        <v>425.3103647807172</v>
+        <v>352.9222778501485</v>
       </c>
       <c r="L17" t="n">
         <v>580.4397903106085</v>
@@ -35893,7 +35893,7 @@
         <v>662.6253938513818</v>
       </c>
       <c r="N17" t="n">
-        <v>577.40530599833</v>
+        <v>658.5675699765968</v>
       </c>
       <c r="O17" t="n">
         <v>576.2226029344398</v>
@@ -35905,7 +35905,7 @@
         <v>262.7363598143984</v>
       </c>
       <c r="R17" t="n">
-        <v>8.774177047697407</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8276527278229082</v>
+        <v>126.9186880682317</v>
       </c>
       <c r="K18" t="n">
-        <v>80.35885773734998</v>
+        <v>344.8240947499286</v>
       </c>
       <c r="L18" t="n">
-        <v>525.6831920415837</v>
+        <v>448.5653136597321</v>
       </c>
       <c r="M18" t="n">
-        <v>665.9517545213414</v>
+        <v>200.2466907713414</v>
       </c>
       <c r="N18" t="n">
-        <v>699.4431859505706</v>
+        <v>220.1008116070171</v>
       </c>
       <c r="O18" t="n">
-        <v>469.6983363922263</v>
+        <v>572.7673241388575</v>
       </c>
       <c r="P18" t="n">
-        <v>124.0586892050137</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.50651761339935</v>
+        <v>242.5838053492485</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>71.35447834864641</v>
+        <v>71.35447834864642</v>
       </c>
       <c r="K19" t="n">
         <v>193.9686294350711</v>
@@ -36057,10 +36057,10 @@
         <v>269.3300876755568</v>
       </c>
       <c r="P19" t="n">
-        <v>218.9132063113586</v>
+        <v>218.9132063113587</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.31997013046276</v>
+        <v>93.31997013046278</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>202.400522327232</v>
+        <v>33.30390715515816</v>
       </c>
       <c r="K20" t="n">
         <v>425.3103647807172</v>
@@ -36127,22 +36127,22 @@
         <v>580.4397903106085</v>
       </c>
       <c r="M20" t="n">
-        <v>662.6253938513819</v>
+        <v>662.6253938513818</v>
       </c>
       <c r="N20" t="n">
-        <v>408.3086908262563</v>
+        <v>658.5675699765968</v>
       </c>
       <c r="O20" t="n">
-        <v>576.2226029344399</v>
+        <v>576.2226029344398</v>
       </c>
       <c r="P20" t="n">
         <v>453.7377279936305</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.7363598143985</v>
+        <v>190.3482728838294</v>
       </c>
       <c r="R20" t="n">
-        <v>8.774177047697435</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>126.9186880682318</v>
+        <v>126.9186880682317</v>
       </c>
       <c r="K21" t="n">
-        <v>120.463921258014</v>
+        <v>344.8240947499286</v>
       </c>
       <c r="L21" t="n">
         <v>525.6831920415837</v>
       </c>
       <c r="M21" t="n">
-        <v>665.9517545213414</v>
+        <v>200.2466907713414</v>
       </c>
       <c r="N21" t="n">
-        <v>220.1008116070172</v>
+        <v>220.1008116070171</v>
       </c>
       <c r="O21" t="n">
-        <v>572.7673241388575</v>
+        <v>495.6494457570057</v>
       </c>
       <c r="P21" t="n">
-        <v>124.0586892050138</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q21" t="n">
         <v>242.5838053492485</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>71.35447834864642</v>
+        <v>71.35447834864641</v>
       </c>
       <c r="K22" t="n">
         <v>193.9686294350711</v>
@@ -36291,13 +36291,13 @@
         <v>302.1109787712456</v>
       </c>
       <c r="O22" t="n">
-        <v>269.3300876755569</v>
+        <v>269.3300876755568</v>
       </c>
       <c r="P22" t="n">
-        <v>218.9132063113587</v>
+        <v>218.9132063113586</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.31997013046279</v>
+        <v>93.31997013046276</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>580.4397903106085</v>
       </c>
       <c r="M23" t="n">
-        <v>421.1406917487388</v>
+        <v>662.6253938513818</v>
       </c>
       <c r="N23" t="n">
         <v>658.5675699765968</v>
@@ -36373,13 +36373,13 @@
         <v>576.2226029344398</v>
       </c>
       <c r="P23" t="n">
-        <v>453.7377279936305</v>
+        <v>203.4788488432903</v>
       </c>
       <c r="Q23" t="n">
         <v>262.7363598143984</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>8.774177047697407</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>525.6831920415837</v>
       </c>
       <c r="M24" t="n">
-        <v>665.9517545213414</v>
+        <v>200.2466907713414</v>
       </c>
       <c r="N24" t="n">
         <v>220.1008116070171</v>
       </c>
       <c r="O24" t="n">
-        <v>558.4844383827922</v>
+        <v>495.6494457570057</v>
       </c>
       <c r="P24" t="n">
-        <v>124.0586892050137</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.50651761339935</v>
+        <v>242.5838053492485</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>71.35447834864642</v>
+        <v>71.35447834864641</v>
       </c>
       <c r="K25" t="n">
         <v>193.9686294350711</v>
@@ -36531,10 +36531,10 @@
         <v>269.3300876755568</v>
       </c>
       <c r="P25" t="n">
-        <v>218.9132063113587</v>
+        <v>218.9132063113586</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.31997013046278</v>
+        <v>93.31997013046276</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>344.8240947499286</v>
       </c>
       <c r="L27" t="n">
-        <v>154.8428467381244</v>
+        <v>525.6831920415837</v>
       </c>
       <c r="M27" t="n">
         <v>200.2466907713414</v>
       </c>
       <c r="N27" t="n">
-        <v>699.4431859505706</v>
+        <v>220.1008116070171</v>
       </c>
       <c r="O27" t="n">
-        <v>572.7673241388575</v>
+        <v>495.6494457570057</v>
       </c>
       <c r="P27" t="n">
-        <v>256.9015504230049</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q27" t="n">
         <v>242.5838053492485</v>
@@ -36911,25 +36911,25 @@
         <v>0.8276527278229082</v>
       </c>
       <c r="K30" t="n">
-        <v>138.0529275583286</v>
+        <v>80.35885773734998</v>
       </c>
       <c r="L30" t="n">
-        <v>154.8428467381244</v>
+        <v>525.6831920415837</v>
       </c>
       <c r="M30" t="n">
         <v>665.9517545213414</v>
       </c>
       <c r="N30" t="n">
-        <v>699.4431859505706</v>
+        <v>277.9114295640017</v>
       </c>
       <c r="O30" t="n">
         <v>572.7673241388575</v>
       </c>
       <c r="P30" t="n">
-        <v>124.0586892050137</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q30" t="n">
-        <v>242.5838053492485</v>
+        <v>32.50651761339935</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>55.00256318496324</v>
+        <v>55.00256318496318</v>
       </c>
       <c r="K31" t="n">
         <v>177.6167142713879</v>
@@ -37002,13 +37002,13 @@
         <v>285.7590636075624</v>
       </c>
       <c r="O31" t="n">
-        <v>252.9781725118737</v>
+        <v>252.9781725118736</v>
       </c>
       <c r="P31" t="n">
-        <v>202.5612911476755</v>
+        <v>202.5612911476754</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.96805496677959</v>
+        <v>76.96805496677953</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>202.4005223272316</v>
+        <v>202.400522327232</v>
       </c>
       <c r="K32" t="n">
         <v>425.3103647807172</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8276527278229082</v>
+        <v>126.9186880682317</v>
       </c>
       <c r="K33" t="n">
         <v>344.8240947499286</v>
       </c>
       <c r="L33" t="n">
-        <v>525.6831920415837</v>
+        <v>215.8429634828451</v>
       </c>
       <c r="M33" t="n">
-        <v>200.2466907713414</v>
+        <v>665.9517545213414</v>
       </c>
       <c r="N33" t="n">
-        <v>479.1512563014232</v>
+        <v>699.4431859505706</v>
       </c>
       <c r="O33" t="n">
-        <v>572.7673241388575</v>
+        <v>178.905004862128</v>
       </c>
       <c r="P33" t="n">
-        <v>442.5214578449509</v>
+        <v>124.0586892050137</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.50651761339935</v>
+        <v>242.5838053492485</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>33.30390715515816</v>
+        <v>202.4005223272319</v>
       </c>
       <c r="K35" t="n">
         <v>425.3103647807172</v>
       </c>
       <c r="L35" t="n">
-        <v>508.0517033800393</v>
+        <v>580.4397903106085</v>
       </c>
       <c r="M35" t="n">
-        <v>662.6253938513818</v>
+        <v>412.3665147010414</v>
       </c>
       <c r="N35" t="n">
         <v>658.5675699765968</v>
@@ -37327,7 +37327,7 @@
         <v>262.7363598143984</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.774177047697407</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>126.9186880682317</v>
       </c>
       <c r="K36" t="n">
-        <v>344.8240947499286</v>
+        <v>80.35885773734998</v>
       </c>
       <c r="L36" t="n">
         <v>525.6831920415837</v>
       </c>
       <c r="M36" t="n">
-        <v>665.9517545213414</v>
+        <v>200.2466907713414</v>
       </c>
       <c r="N36" t="n">
-        <v>599.6802451276815</v>
+        <v>407.448170237744</v>
       </c>
       <c r="O36" t="n">
-        <v>178.905004862128</v>
+        <v>572.7673241388575</v>
       </c>
       <c r="P36" t="n">
-        <v>124.0586892050137</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.50651761339935</v>
+        <v>242.5838053492485</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>202.4005223272319</v>
+        <v>33.30390715515813</v>
       </c>
       <c r="K38" t="n">
-        <v>425.3103647807172</v>
+        <v>425.3103647807171</v>
       </c>
       <c r="L38" t="n">
-        <v>580.4397903106085</v>
+        <v>580.4397903106084</v>
       </c>
       <c r="M38" t="n">
-        <v>412.3665147010418</v>
+        <v>662.6253938513817</v>
       </c>
       <c r="N38" t="n">
         <v>658.5675699765968</v>
@@ -37558,13 +37558,13 @@
         <v>576.2226029344398</v>
       </c>
       <c r="P38" t="n">
-        <v>453.7377279936305</v>
+        <v>453.7377279936304</v>
       </c>
       <c r="Q38" t="n">
-        <v>262.7363598143984</v>
+        <v>190.3482728838294</v>
       </c>
       <c r="R38" t="n">
-        <v>8.774177047697407</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>344.8240947499286</v>
       </c>
       <c r="L39" t="n">
-        <v>363.085258592908</v>
+        <v>525.6831920415835</v>
       </c>
       <c r="M39" t="n">
         <v>200.2466907713414</v>
       </c>
       <c r="N39" t="n">
-        <v>699.4431859505706</v>
+        <v>220.1008116070171</v>
       </c>
       <c r="O39" t="n">
-        <v>178.905004862128</v>
+        <v>495.6494457570062</v>
       </c>
       <c r="P39" t="n">
-        <v>442.5214578449509</v>
+        <v>442.5214578449508</v>
       </c>
       <c r="Q39" t="n">
-        <v>242.5838053492485</v>
+        <v>242.5838053492484</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>71.35447834864642</v>
+        <v>71.35447834864641</v>
       </c>
       <c r="K40" t="n">
         <v>193.9686294350711</v>
@@ -37716,10 +37716,10 @@
         <v>269.3300876755568</v>
       </c>
       <c r="P40" t="n">
-        <v>218.9132063113587</v>
+        <v>218.9132063113586</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.31997013046278</v>
+        <v>93.31997013046276</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>202.4005223272319</v>
+        <v>173.2308108844938</v>
       </c>
       <c r="K41" t="n">
         <v>425.3103647807172</v>
@@ -37786,7 +37786,7 @@
         <v>580.4397903106085</v>
       </c>
       <c r="M41" t="n">
-        <v>412.3665147010418</v>
+        <v>662.6253938513818</v>
       </c>
       <c r="N41" t="n">
         <v>658.5675699765968</v>
@@ -37798,10 +37798,10 @@
         <v>453.7377279936305</v>
       </c>
       <c r="Q41" t="n">
-        <v>262.7363598143984</v>
+        <v>50.42136915449376</v>
       </c>
       <c r="R41" t="n">
-        <v>8.774177047697407</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8276527278229082</v>
+        <v>126.9186880682317</v>
       </c>
       <c r="K42" t="n">
         <v>344.8240947499286</v>
       </c>
       <c r="L42" t="n">
-        <v>525.6831920415837</v>
+        <v>448.5653136597321</v>
       </c>
       <c r="M42" t="n">
-        <v>665.9517545213414</v>
+        <v>200.2466907713414</v>
       </c>
       <c r="N42" t="n">
-        <v>407.308511828153</v>
+        <v>220.1008116070171</v>
       </c>
       <c r="O42" t="n">
-        <v>178.905004862128</v>
+        <v>572.7673241388575</v>
       </c>
       <c r="P42" t="n">
         <v>442.5214578449509</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.50651761339935</v>
+        <v>242.5838053492485</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.98950510684152</v>
+        <v>10.98950510684136</v>
       </c>
       <c r="K43" t="n">
-        <v>133.6036561932662</v>
+        <v>133.603656193266</v>
       </c>
       <c r="L43" t="n">
-        <v>220.2707747249177</v>
+        <v>220.2707747249176</v>
       </c>
       <c r="M43" t="n">
-        <v>241.4201825778152</v>
+        <v>241.420182577815</v>
       </c>
       <c r="N43" t="n">
-        <v>241.7460055294407</v>
+        <v>241.7460055294406</v>
       </c>
       <c r="O43" t="n">
-        <v>208.9651144337519</v>
+        <v>208.9651144337518</v>
       </c>
       <c r="P43" t="n">
-        <v>158.5482330695538</v>
+        <v>158.5482330695536</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.95499688865787</v>
+        <v>32.95499688865772</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>453.7377279936305</v>
       </c>
       <c r="Q44" t="n">
-        <v>190.3482728838298</v>
+        <v>190.3482728838294</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8276527278229082</v>
+        <v>126.9186880682317</v>
       </c>
       <c r="K45" t="n">
         <v>344.8240947499286</v>
       </c>
       <c r="L45" t="n">
-        <v>154.8428467381244</v>
+        <v>363.085258592908</v>
       </c>
       <c r="M45" t="n">
-        <v>665.9517545213414</v>
+        <v>200.2466907713414</v>
       </c>
       <c r="N45" t="n">
         <v>699.4431859505706</v>
       </c>
       <c r="O45" t="n">
-        <v>365.9961569472574</v>
+        <v>178.905004862128</v>
       </c>
       <c r="P45" t="n">
-        <v>124.0586892050137</v>
+        <v>442.5214578449509</v>
       </c>
       <c r="Q45" t="n">
         <v>242.5838053492485</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>10.98950510684152</v>
+        <v>10.98950510684136</v>
       </c>
       <c r="K46" t="n">
-        <v>133.6036561932662</v>
+        <v>133.603656193266</v>
       </c>
       <c r="L46" t="n">
-        <v>220.2707747249177</v>
+        <v>220.2707747249176</v>
       </c>
       <c r="M46" t="n">
-        <v>241.4201825778152</v>
+        <v>241.420182577815</v>
       </c>
       <c r="N46" t="n">
-        <v>241.7460055294407</v>
+        <v>241.7460055294406</v>
       </c>
       <c r="O46" t="n">
-        <v>208.9651144337519</v>
+        <v>208.9651144337518</v>
       </c>
       <c r="P46" t="n">
-        <v>158.5482330695538</v>
+        <v>158.5482330695536</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.95499688865787</v>
+        <v>32.95499688865772</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
